--- a/Question.xlsx
+++ b/Question.xlsx
@@ -1432,7 +1432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1464,12 +1464,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1783,10 +1789,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="51.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="88.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1795,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
@@ -1803,13 +1809,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
@@ -1829,7 +1835,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
@@ -1897,7 +1903,7 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
@@ -1909,7 +1915,7 @@
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
@@ -1921,7 +1927,7 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2" t="s">
@@ -1933,7 +1939,7 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2" t="s">
@@ -1945,7 +1951,7 @@
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2" t="s">
@@ -1957,7 +1963,7 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2" t="s">
@@ -1969,7 +1975,7 @@
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
@@ -1981,7 +1987,7 @@
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2" t="s">
@@ -1993,7 +1999,7 @@
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2" t="s">
@@ -2005,7 +2011,7 @@
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2" t="s">
@@ -2017,7 +2023,7 @@
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2" t="s">
@@ -2029,7 +2035,7 @@
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2" t="s">
@@ -2041,7 +2047,7 @@
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2" t="s">
@@ -2053,7 +2059,7 @@
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2" t="s">
@@ -2065,7 +2071,7 @@
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2" t="s">
@@ -2077,7 +2083,7 @@
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="2" t="s">
@@ -2089,7 +2095,7 @@
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="2" t="s">
@@ -2101,7 +2107,7 @@
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="2" t="s">
@@ -2113,7 +2119,7 @@
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="2" t="s">
@@ -2125,7 +2131,7 @@
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="2" t="s">
@@ -2137,7 +2143,7 @@
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="2" t="s">
@@ -2149,7 +2155,7 @@
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="2" t="s">
@@ -2161,7 +2167,7 @@
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="2" t="s">
@@ -2173,7 +2179,7 @@
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="2" t="s">
@@ -2185,7 +2191,7 @@
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="2" t="s">
@@ -2197,7 +2203,7 @@
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="2" t="s">
@@ -2209,7 +2215,7 @@
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="2" t="s">
@@ -2221,7 +2227,7 @@
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="2" t="s">
@@ -2233,7 +2239,7 @@
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="2" t="s">
@@ -2245,7 +2251,7 @@
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="2" t="s">
@@ -2257,7 +2263,7 @@
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="2" t="s">
@@ -2269,7 +2275,7 @@
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
@@ -2277,7 +2283,7 @@
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
@@ -2285,7 +2291,7 @@
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="2" t="s">
@@ -2297,7 +2303,7 @@
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="2" t="s">
@@ -2309,7 +2315,7 @@
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="2" t="s">
@@ -2321,7 +2327,7 @@
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="2" t="s">
@@ -2333,7 +2339,7 @@
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="2" t="s">
@@ -2345,7 +2351,7 @@
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="2" t="s">
@@ -2357,7 +2363,7 @@
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="2" t="s">
@@ -2369,7 +2375,7 @@
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="2" t="s">
@@ -2381,7 +2387,7 @@
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="2" t="s">
@@ -2393,7 +2399,7 @@
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="2" t="s">
@@ -2405,19 +2411,19 @@
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="2" t="s">
@@ -2429,7 +2435,7 @@
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="2" t="s">
@@ -2441,7 +2447,7 @@
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="2" t="s">
@@ -2453,7 +2459,7 @@
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="2" t="s">
@@ -2465,7 +2471,7 @@
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="2" t="s">
@@ -2477,7 +2483,7 @@
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="2" t="s">
@@ -2489,7 +2495,7 @@
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="2" t="s">
@@ -2501,7 +2507,7 @@
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="2" t="s">
@@ -2513,7 +2519,7 @@
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="2" t="s">
@@ -2525,7 +2531,7 @@
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="2" t="s">
@@ -2537,7 +2543,7 @@
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="2" t="s">
@@ -2549,7 +2555,7 @@
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="2" t="s">
@@ -2561,7 +2567,7 @@
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="2" t="s">
@@ -2573,7 +2579,7 @@
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="2" t="s">
@@ -2585,7 +2591,7 @@
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="2" t="s">
@@ -2597,7 +2603,7 @@
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="2" t="s">
@@ -2609,7 +2615,7 @@
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="2" t="s">
@@ -2621,7 +2627,7 @@
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="2" t="s">
@@ -2633,7 +2639,7 @@
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="2" t="s">
@@ -2645,7 +2651,7 @@
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="2" t="s">
@@ -2657,7 +2663,7 @@
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="2" t="s">
@@ -2669,7 +2675,7 @@
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="2" t="s">
@@ -2681,7 +2687,7 @@
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="2" t="s">
@@ -2693,7 +2699,7 @@
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="2" t="s">
@@ -2705,7 +2711,7 @@
       <c r="C79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="2" t="s">
@@ -2717,7 +2723,7 @@
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="2" t="s">
@@ -2729,7 +2735,7 @@
       <c r="C81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="1"/>
+      <c r="D81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
       <c r="A82" s="2" t="s">
@@ -2741,7 +2747,7 @@
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
       <c r="A83" s="2" t="s">
@@ -2753,7 +2759,7 @@
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
       <c r="A84" s="2" t="s">
@@ -2765,7 +2771,7 @@
       <c r="C84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="1"/>
+      <c r="D84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
       <c r="A85" s="2" t="s">
@@ -2777,7 +2783,7 @@
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="1"/>
+      <c r="D85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
       <c r="A86" s="2" t="s">
@@ -2789,7 +2795,7 @@
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="2" t="s">
@@ -2801,7 +2807,7 @@
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
       <c r="A88" s="2" t="s">
@@ -2813,7 +2819,7 @@
       <c r="C88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
       <c r="A89" s="2" t="s">
@@ -2825,7 +2831,7 @@
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
       <c r="A90" s="2" t="s">
@@ -2837,7 +2843,7 @@
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
       <c r="A91" s="2" t="s">
@@ -2849,7 +2855,7 @@
       <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
       <c r="A92" s="2" t="s">
@@ -2861,7 +2867,7 @@
       <c r="C92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="1"/>
+      <c r="D92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="2" t="s">
@@ -2873,7 +2879,7 @@
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
       <c r="A94" s="2" t="s">
@@ -2885,7 +2891,7 @@
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
       <c r="A95" s="2" t="s">
@@ -2897,7 +2903,7 @@
       <c r="C95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
       <c r="A96" s="2" t="s">
@@ -2909,7 +2915,7 @@
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
       <c r="A97" s="2" t="s">
@@ -2921,7 +2927,7 @@
       <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="1"/>
+      <c r="D97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
       <c r="A98" s="2" t="s">
@@ -2933,19 +2939,19 @@
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="D99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="2" t="s">
@@ -2957,7 +2963,7 @@
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="1"/>
+      <c r="D101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="2" t="s">
@@ -2969,7 +2975,7 @@
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="2" t="s">
@@ -2981,7 +2987,7 @@
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="2" t="s">
@@ -2993,7 +2999,7 @@
       <c r="C104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="1"/>
+      <c r="D104" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="2" t="s">
@@ -3005,7 +3011,7 @@
       <c r="C105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="2" t="s">
@@ -3017,7 +3023,7 @@
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="2" t="s">
@@ -3029,7 +3035,7 @@
       <c r="C107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
       <c r="A108" s="2" t="s">
@@ -3041,7 +3047,7 @@
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
       <c r="A109" s="2" t="s">
@@ -3053,7 +3059,7 @@
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="1"/>
+      <c r="D109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="2" t="s">
@@ -3065,7 +3071,7 @@
       <c r="C110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="2" t="s">
@@ -3077,7 +3083,7 @@
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="1"/>
+      <c r="D111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
       <c r="A112" s="2" t="s">
@@ -3089,7 +3095,7 @@
       <c r="C112" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="1"/>
+      <c r="D112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
       <c r="A113" s="2" t="s">
@@ -3101,7 +3107,7 @@
       <c r="C113" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D113" s="1"/>
+      <c r="D113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
       <c r="A114" s="2" t="s">
@@ -3113,7 +3119,7 @@
       <c r="C114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="2" t="s">
@@ -3125,7 +3131,7 @@
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="1"/>
+      <c r="D115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="2" t="s">
@@ -3137,7 +3143,7 @@
       <c r="C116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="2" t="s">
@@ -3149,7 +3155,7 @@
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="2" t="s">
@@ -3161,7 +3167,7 @@
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="2" t="s">
@@ -3173,7 +3179,7 @@
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="1"/>
+      <c r="D119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="2" t="s">
@@ -3185,7 +3191,7 @@
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="1"/>
+      <c r="D120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="2" t="s">
@@ -3197,7 +3203,7 @@
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="1"/>
+      <c r="D121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="2" t="s">
@@ -3209,7 +3215,7 @@
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="1"/>
+      <c r="D122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="2" t="s">
@@ -3221,7 +3227,7 @@
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="1"/>
+      <c r="D123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="2" t="s">
@@ -3233,7 +3239,7 @@
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="1"/>
+      <c r="D124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="2" t="s">
@@ -3245,7 +3251,7 @@
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="1"/>
+      <c r="D125" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
       <c r="A126" s="2" t="s">
@@ -3257,7 +3263,7 @@
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="1"/>
+      <c r="D126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="2" t="s">
@@ -3269,7 +3275,7 @@
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="D127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="2" t="s">
@@ -3281,7 +3287,7 @@
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="1"/>
+      <c r="D128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="2" t="s">
@@ -3293,7 +3299,7 @@
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="1"/>
+      <c r="D129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="2" t="s">
@@ -3305,7 +3311,7 @@
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="1"/>
+      <c r="D130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="2" t="s">
@@ -3317,7 +3323,7 @@
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="2" t="s">
@@ -3329,7 +3335,7 @@
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="1"/>
+      <c r="D132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="2" t="s">
@@ -3341,7 +3347,7 @@
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="1"/>
+      <c r="D133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="2" t="s">
@@ -3353,7 +3359,7 @@
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="1"/>
+      <c r="D134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="2" t="s">
@@ -3365,7 +3371,7 @@
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="1"/>
+      <c r="D135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="2" t="s">
@@ -3377,19 +3383,19 @@
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="1"/>
+      <c r="D136" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="D138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="2" t="s">
@@ -3401,7 +3407,7 @@
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="2" t="s">
@@ -3413,7 +3419,7 @@
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="2" t="s">
@@ -3425,7 +3431,7 @@
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="2" t="s">
@@ -3437,7 +3443,7 @@
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="2" t="s">
@@ -3449,7 +3455,7 @@
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="2" t="s">
@@ -3461,7 +3467,7 @@
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="1"/>
+      <c r="D144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="2" t="s">
@@ -3473,7 +3479,7 @@
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="2" t="s">
@@ -3485,7 +3491,7 @@
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D146" s="1"/>
+      <c r="D146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
       <c r="A147" s="2" t="s">
@@ -3497,7 +3503,7 @@
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="1"/>
+      <c r="D147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
       <c r="A148" s="2" t="s">
@@ -3509,7 +3515,7 @@
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="1"/>
+      <c r="D148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
       <c r="A149" s="2" t="s">
@@ -3521,7 +3527,7 @@
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="1"/>
+      <c r="D149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="2" t="s">
@@ -3533,7 +3539,7 @@
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="2" t="s">
@@ -3545,7 +3551,7 @@
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="1"/>
+      <c r="D151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
       <c r="A152" s="2" t="s">
@@ -3557,7 +3563,7 @@
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D152" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
       <c r="A153" s="2" t="s">
@@ -3569,7 +3575,7 @@
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
       <c r="A154" s="2" t="s">
@@ -3581,7 +3587,7 @@
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="1"/>
+      <c r="D154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
       <c r="A155" s="2" t="s">
@@ -3593,7 +3599,7 @@
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="1"/>
+      <c r="D155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
       <c r="A156" s="2" t="s">
@@ -3605,7 +3611,7 @@
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="1"/>
+      <c r="D156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
       <c r="A157" s="2" t="s">
@@ -3617,7 +3623,7 @@
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="1"/>
+      <c r="D157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
       <c r="A158" s="2" t="s">
@@ -3629,7 +3635,7 @@
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="1"/>
+      <c r="D158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
       <c r="A159" s="2" t="s">
@@ -3641,7 +3647,7 @@
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="1"/>
+      <c r="D159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
       <c r="A160" s="2" t="s">
@@ -3653,7 +3659,7 @@
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="1"/>
+      <c r="D160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
       <c r="A161" s="2" t="s">
@@ -3665,7 +3671,7 @@
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="1"/>
+      <c r="D161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
       <c r="A162" s="2" t="s">
@@ -3677,7 +3683,7 @@
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D162" s="1"/>
+      <c r="D162" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
       <c r="A163" s="2" t="s">
@@ -3689,7 +3695,7 @@
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="1"/>
+      <c r="D163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
       <c r="A164" s="2" t="s">
@@ -3701,7 +3707,7 @@
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D164" s="1"/>
+      <c r="D164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
       <c r="A165" s="2" t="s">
@@ -3713,7 +3719,7 @@
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D165" s="1"/>
+      <c r="D165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
       <c r="A166" s="2" t="s">
@@ -3725,7 +3731,7 @@
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="1"/>
+      <c r="D166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
       <c r="A167" s="2" t="s">
@@ -3737,7 +3743,7 @@
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="1"/>
+      <c r="D167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
       <c r="A168" s="2" t="s">
@@ -3749,7 +3755,7 @@
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="1"/>
+      <c r="D168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
       <c r="A169" s="2" t="s">
@@ -3761,7 +3767,7 @@
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D169" s="1"/>
+      <c r="D169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
       <c r="A170" s="2" t="s">
@@ -3773,7 +3779,7 @@
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="1"/>
+      <c r="D170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
       <c r="A171" s="2" t="s">
@@ -3785,7 +3791,7 @@
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D171" s="1"/>
+      <c r="D171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
       <c r="A172" s="2" t="s">
@@ -3797,7 +3803,7 @@
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D172" s="1"/>
+      <c r="D172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
       <c r="A173" s="2" t="s">
@@ -3809,7 +3815,7 @@
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D173" s="1"/>
+      <c r="D173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
       <c r="A174" s="2" t="s">
@@ -3821,19 +3827,19 @@
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D174" s="1"/>
+      <c r="D174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="D175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
       <c r="A177" s="2" t="s">
@@ -3845,7 +3851,7 @@
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D177" s="1"/>
+      <c r="D177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
       <c r="A178" s="2" t="s">
@@ -3857,7 +3863,7 @@
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D178" s="1"/>
+      <c r="D178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
       <c r="A179" s="2" t="s">
@@ -3869,7 +3875,7 @@
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D179" s="1"/>
+      <c r="D179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
       <c r="A180" s="2" t="s">
@@ -3881,7 +3887,7 @@
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="1"/>
+      <c r="D180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
       <c r="A181" s="2" t="s">
@@ -3893,7 +3899,7 @@
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="1"/>
+      <c r="D181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="2" t="s">
@@ -3905,7 +3911,7 @@
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="1"/>
+      <c r="D182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="2" t="s">
@@ -3917,7 +3923,7 @@
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D183" s="1"/>
+      <c r="D183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="2" t="s">
@@ -3929,7 +3935,7 @@
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D184" s="1"/>
+      <c r="D184" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="2" t="s">
@@ -3941,7 +3947,7 @@
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D185" s="1"/>
+      <c r="D185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="2" t="s">
@@ -3953,7 +3959,7 @@
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D186" s="1"/>
+      <c r="D186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="2" t="s">
@@ -3965,7 +3971,7 @@
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D187" s="1"/>
+      <c r="D187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="2" t="s">
@@ -3977,7 +3983,7 @@
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="1"/>
+      <c r="D188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="2" t="s">
@@ -3989,7 +3995,7 @@
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D189" s="1"/>
+      <c r="D189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="2" t="s">
@@ -4001,7 +4007,7 @@
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="1"/>
+      <c r="D190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="2" t="s">
@@ -4013,7 +4019,7 @@
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D191" s="1"/>
+      <c r="D191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="2" t="s">
@@ -4025,7 +4031,7 @@
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D192" s="1"/>
+      <c r="D192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="2" t="s">
@@ -4037,7 +4043,7 @@
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D193" s="1"/>
+      <c r="D193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="2" t="s">
@@ -4049,7 +4055,7 @@
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D194" s="1"/>
+      <c r="D194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="2" t="s">
@@ -4061,7 +4067,7 @@
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D195" s="1"/>
+      <c r="D195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="2" t="s">
@@ -4073,7 +4079,7 @@
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D196" s="1"/>
+      <c r="D196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="2" t="s">
@@ -4085,7 +4091,7 @@
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D197" s="1"/>
+      <c r="D197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
       <c r="A198" s="2" t="s">
@@ -4097,7 +4103,7 @@
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D198" s="1"/>
+      <c r="D198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
       <c r="A199" s="2" t="s">
@@ -4109,7 +4115,7 @@
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D199" s="1"/>
+      <c r="D199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
       <c r="A200" s="2" t="s">
@@ -4121,7 +4127,7 @@
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D200" s="1"/>
+      <c r="D200" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
       <c r="A201" s="2" t="s">
@@ -4133,7 +4139,7 @@
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D201" s="1"/>
+      <c r="D201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
       <c r="A202" s="2" t="s">
@@ -4145,7 +4151,7 @@
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D202" s="1"/>
+      <c r="D202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
       <c r="A203" s="2" t="s">
@@ -4157,7 +4163,7 @@
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D203" s="1"/>
+      <c r="D203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
       <c r="A204" s="2" t="s">
@@ -4169,7 +4175,7 @@
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D204" s="1"/>
+      <c r="D204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
       <c r="A205" s="2" t="s">
@@ -4181,7 +4187,7 @@
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D205" s="1"/>
+      <c r="D205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
       <c r="A206" s="2" t="s">
@@ -4193,7 +4199,7 @@
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D206" s="1"/>
+      <c r="D206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
       <c r="A207" s="2" t="s">
@@ -4205,7 +4211,7 @@
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D207" s="1"/>
+      <c r="D207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
       <c r="A208" s="2" t="s">
@@ -4217,7 +4223,7 @@
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D208" s="1"/>
+      <c r="D208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
       <c r="A209" s="2" t="s">
@@ -4229,7 +4235,7 @@
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D209" s="1"/>
+      <c r="D209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
       <c r="A210" s="2" t="s">
@@ -4241,7 +4247,7 @@
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D210" s="1"/>
+      <c r="D210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
       <c r="A211" s="2" t="s">
@@ -4253,19 +4259,19 @@
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D211" s="1"/>
+      <c r="D211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
+      <c r="D212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
+      <c r="D213" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
       <c r="A214" s="2" t="s">
@@ -4277,7 +4283,7 @@
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D214" s="1"/>
+      <c r="D214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
       <c r="A215" s="2" t="s">
@@ -4289,7 +4295,7 @@
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D215" s="1"/>
+      <c r="D215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
       <c r="A216" s="2" t="s">
@@ -4301,7 +4307,7 @@
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D216" s="1"/>
+      <c r="D216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
       <c r="A217" s="2" t="s">
@@ -4313,7 +4319,7 @@
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D217" s="1"/>
+      <c r="D217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
       <c r="A218" s="2" t="s">
@@ -4325,7 +4331,7 @@
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D218" s="1"/>
+      <c r="D218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
       <c r="A219" s="2" t="s">
@@ -4337,7 +4343,7 @@
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D219" s="1"/>
+      <c r="D219" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
       <c r="A220" s="2" t="s">
@@ -4349,7 +4355,7 @@
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D220" s="1"/>
+      <c r="D220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
       <c r="A221" s="2" t="s">
@@ -4361,7 +4367,7 @@
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D221" s="1"/>
+      <c r="D221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
       <c r="A222" s="2" t="s">
@@ -4373,7 +4379,7 @@
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D222" s="1"/>
+      <c r="D222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
       <c r="A223" s="2" t="s">
@@ -4385,7 +4391,7 @@
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D223" s="1"/>
+      <c r="D223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
       <c r="A224" s="2" t="s">
@@ -4397,7 +4403,7 @@
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D224" s="1"/>
+      <c r="D224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
       <c r="A225" s="2" t="s">
@@ -4409,7 +4415,7 @@
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D225" s="1"/>
+      <c r="D225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
       <c r="A226" s="2" t="s">
@@ -4421,7 +4427,7 @@
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D226" s="1"/>
+      <c r="D226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
       <c r="A227" s="2" t="s">
@@ -4433,7 +4439,7 @@
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D227" s="1"/>
+      <c r="D227" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
       <c r="A228" s="2" t="s">
@@ -4445,7 +4451,7 @@
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D228" s="1"/>
+      <c r="D228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
       <c r="A229" s="2" t="s">
@@ -4457,7 +4463,7 @@
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D229" s="1"/>
+      <c r="D229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
       <c r="A230" s="2" t="s">
@@ -4469,7 +4475,7 @@
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D230" s="1"/>
+      <c r="D230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
       <c r="A231" s="2" t="s">
@@ -4481,7 +4487,7 @@
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D231" s="1"/>
+      <c r="D231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
       <c r="A232" s="2" t="s">
@@ -4493,7 +4499,7 @@
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D232" s="1"/>
+      <c r="D232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
       <c r="A233" s="2" t="s">
@@ -4505,7 +4511,7 @@
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D233" s="1"/>
+      <c r="D233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
       <c r="A234" s="2" t="s">
@@ -4517,7 +4523,7 @@
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="1"/>
+      <c r="D234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
       <c r="A235" s="2" t="s">
@@ -4529,19 +4535,19 @@
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D235" s="1"/>
+      <c r="D235" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
+      <c r="D236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
+      <c r="D237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
       <c r="A238" s="2" t="s">
@@ -4553,7 +4559,7 @@
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D238" s="1"/>
+      <c r="D238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
       <c r="A239" s="2" t="s">
@@ -4565,7 +4571,7 @@
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D239" s="1"/>
+      <c r="D239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
       <c r="A240" s="2" t="s">
@@ -4577,7 +4583,7 @@
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D240" s="1"/>
+      <c r="D240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
       <c r="A241" s="2" t="s">
@@ -4589,7 +4595,7 @@
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D241" s="1"/>
+      <c r="D241" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
       <c r="A242" s="2" t="s">
@@ -4601,7 +4607,7 @@
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D242" s="1"/>
+      <c r="D242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
       <c r="A243" s="2" t="s">
@@ -4613,7 +4619,7 @@
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D243" s="1"/>
+      <c r="D243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
       <c r="A244" s="2" t="s">
@@ -4625,7 +4631,7 @@
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D244" s="1"/>
+      <c r="D244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
       <c r="A245" s="2" t="s">
@@ -4637,7 +4643,7 @@
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D245" s="1"/>
+      <c r="D245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
       <c r="A246" s="2" t="s">
@@ -4649,7 +4655,7 @@
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D246" s="1"/>
+      <c r="D246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
       <c r="A247" s="2" t="s">
@@ -4661,7 +4667,7 @@
       <c r="C247" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D247" s="1"/>
+      <c r="D247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
       <c r="A248" s="2" t="s">
@@ -4673,7 +4679,7 @@
       <c r="C248" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D248" s="1"/>
+      <c r="D248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
       <c r="A249" s="2" t="s">
@@ -4685,7 +4691,7 @@
       <c r="C249" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D249" s="1"/>
+      <c r="D249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
       <c r="A250" s="2" t="s">
@@ -4697,7 +4703,7 @@
       <c r="C250" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D250" s="1"/>
+      <c r="D250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
       <c r="A251" s="2" t="s">
@@ -4709,7 +4715,7 @@
       <c r="C251" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D251" s="1"/>
+      <c r="D251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
       <c r="A252" s="2" t="s">
@@ -4721,7 +4727,7 @@
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D252" s="1"/>
+      <c r="D252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
       <c r="A253" s="2" t="s">
@@ -4733,7 +4739,7 @@
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D253" s="1"/>
+      <c r="D253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
       <c r="A254" s="2" t="s">
@@ -4745,7 +4751,7 @@
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D254" s="1"/>
+      <c r="D254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
       <c r="A255" s="2" t="s">
@@ -4757,7 +4763,7 @@
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D255" s="1"/>
+      <c r="D255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
       <c r="A256" s="2" t="s">
@@ -4769,7 +4775,7 @@
       <c r="C256" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D256" s="1"/>
+      <c r="D256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
       <c r="A257" s="2" t="s">
@@ -4781,7 +4787,7 @@
       <c r="C257" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D257" s="1"/>
+      <c r="D257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
       <c r="A258" s="2" t="s">
@@ -4793,7 +4799,7 @@
       <c r="C258" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D258" s="1"/>
+      <c r="D258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
       <c r="A259" s="2" t="s">
@@ -4805,7 +4811,7 @@
       <c r="C259" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D259" s="1"/>
+      <c r="D259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
       <c r="A260" s="2" t="s">
@@ -4817,7 +4823,7 @@
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D260" s="1"/>
+      <c r="D260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
       <c r="A261" s="2" t="s">
@@ -4829,7 +4835,7 @@
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D261" s="1"/>
+      <c r="D261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
       <c r="A262" s="2" t="s">
@@ -4841,7 +4847,7 @@
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D262" s="1"/>
+      <c r="D262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
       <c r="A263" s="2" t="s">
@@ -4853,7 +4859,7 @@
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D263" s="1"/>
+      <c r="D263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
       <c r="A264" s="2" t="s">
@@ -4865,7 +4871,7 @@
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D264" s="1"/>
+      <c r="D264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
       <c r="A265" s="2" t="s">
@@ -4877,7 +4883,7 @@
       <c r="C265" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D265" s="1"/>
+      <c r="D265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
       <c r="A266" s="2" t="s">
@@ -4889,7 +4895,7 @@
       <c r="C266" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D266" s="1"/>
+      <c r="D266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
       <c r="A267" s="2" t="s">
@@ -4901,7 +4907,7 @@
       <c r="C267" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D267" s="1"/>
+      <c r="D267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
       <c r="A268" s="2" t="s">
@@ -4913,7 +4919,7 @@
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D268" s="1"/>
+      <c r="D268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
       <c r="A269" s="2" t="s">
@@ -4925,7 +4931,7 @@
       <c r="C269" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D269" s="1"/>
+      <c r="D269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
       <c r="A270" s="2" t="s">
@@ -4937,7 +4943,7 @@
       <c r="C270" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D270" s="1"/>
+      <c r="D270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
       <c r="A271" s="2" t="s">
@@ -4949,7 +4955,7 @@
       <c r="C271" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D271" s="1"/>
+      <c r="D271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
       <c r="A272" s="2" t="s">
@@ -4961,19 +4967,19 @@
       <c r="C272" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D272" s="1"/>
+      <c r="D272" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
+      <c r="D273" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
+      <c r="D274" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
       <c r="A275" s="2" t="s">
@@ -4985,7 +4991,7 @@
       <c r="C275" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D275" s="1"/>
+      <c r="D275" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
       <c r="A276" s="2" t="s">
@@ -4997,7 +5003,7 @@
       <c r="C276" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D276" s="1"/>
+      <c r="D276" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
       <c r="A277" s="2" t="s">
@@ -5009,7 +5015,7 @@
       <c r="C277" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D277" s="1"/>
+      <c r="D277" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
       <c r="A278" s="2" t="s">
@@ -5021,7 +5027,7 @@
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D278" s="1"/>
+      <c r="D278" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
       <c r="A279" s="2" t="s">
@@ -5033,7 +5039,7 @@
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D279" s="1"/>
+      <c r="D279" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
       <c r="A280" s="2" t="s">
@@ -5045,7 +5051,7 @@
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D280" s="1"/>
+      <c r="D280" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
       <c r="A281" s="2" t="s">
@@ -5057,7 +5063,7 @@
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D281" s="1"/>
+      <c r="D281" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
       <c r="A282" s="2" t="s">
@@ -5069,7 +5075,7 @@
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D282" s="1"/>
+      <c r="D282" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
       <c r="A283" s="2" t="s">
@@ -5081,7 +5087,7 @@
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D283" s="1"/>
+      <c r="D283" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
       <c r="A284" s="2" t="s">
@@ -5093,7 +5099,7 @@
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D284" s="1"/>
+      <c r="D284" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
       <c r="A285" s="2" t="s">
@@ -5105,7 +5111,7 @@
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D285" s="1"/>
+      <c r="D285" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
       <c r="A286" s="2" t="s">
@@ -5117,7 +5123,7 @@
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D286" s="1"/>
+      <c r="D286" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
       <c r="A287" s="2" t="s">
@@ -5129,7 +5135,7 @@
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D287" s="1"/>
+      <c r="D287" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
       <c r="A288" s="2" t="s">
@@ -5141,7 +5147,7 @@
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D288" s="1"/>
+      <c r="D288" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
       <c r="A289" s="2" t="s">
@@ -5153,7 +5159,7 @@
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D289" s="1"/>
+      <c r="D289" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
       <c r="A290" s="2" t="s">
@@ -5165,7 +5171,7 @@
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D290" s="1"/>
+      <c r="D290" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
       <c r="A291" s="2" t="s">
@@ -5177,7 +5183,7 @@
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D291" s="1"/>
+      <c r="D291" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
       <c r="A292" s="2" t="s">
@@ -5189,7 +5195,7 @@
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D292" s="1"/>
+      <c r="D292" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
       <c r="A293" s="2" t="s">
@@ -5201,19 +5207,19 @@
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D293" s="1"/>
+      <c r="D293" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
+      <c r="D294" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
+      <c r="D295" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
       <c r="A296" s="2" t="s">
@@ -5225,7 +5231,7 @@
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D296" s="1"/>
+      <c r="D296" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
       <c r="A297" s="2" t="s">
@@ -5237,7 +5243,7 @@
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D297" s="1"/>
+      <c r="D297" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
       <c r="A298" s="2" t="s">
@@ -5249,7 +5255,7 @@
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D298" s="1"/>
+      <c r="D298" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
       <c r="A299" s="2" t="s">
@@ -5261,7 +5267,7 @@
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D299" s="1"/>
+      <c r="D299" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
       <c r="A300" s="2" t="s">
@@ -5273,7 +5279,7 @@
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D300" s="1"/>
+      <c r="D300" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
       <c r="A301" s="2" t="s">
@@ -5285,7 +5291,7 @@
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D301" s="1"/>
+      <c r="D301" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
       <c r="A302" s="2" t="s">
@@ -5297,7 +5303,7 @@
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D302" s="1"/>
+      <c r="D302" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
       <c r="A303" s="2" t="s">
@@ -5309,7 +5315,7 @@
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D303" s="1"/>
+      <c r="D303" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
       <c r="A304" s="2" t="s">
@@ -5321,7 +5327,7 @@
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D304" s="1"/>
+      <c r="D304" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
       <c r="A305" s="2" t="s">
@@ -5333,7 +5339,7 @@
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D305" s="1"/>
+      <c r="D305" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
       <c r="A306" s="2" t="s">
@@ -5345,7 +5351,7 @@
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D306" s="1"/>
+      <c r="D306" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
       <c r="A307" s="2" t="s">
@@ -5357,7 +5363,7 @@
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D307" s="1"/>
+      <c r="D307" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
       <c r="A308" s="2" t="s">
@@ -5369,7 +5375,7 @@
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D308" s="1"/>
+      <c r="D308" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
       <c r="A309" s="2" t="s">
@@ -5381,7 +5387,7 @@
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D309" s="1"/>
+      <c r="D309" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
       <c r="A310" s="2" t="s">
@@ -5393,7 +5399,7 @@
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D310" s="1"/>
+      <c r="D310" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
       <c r="A311" s="2" t="s">
@@ -5405,7 +5411,7 @@
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D311" s="1"/>
+      <c r="D311" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
       <c r="A312" s="2" t="s">
@@ -5417,7 +5423,7 @@
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D312" s="1"/>
+      <c r="D312" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
       <c r="A313" s="2" t="s">
@@ -5429,7 +5435,7 @@
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D313" s="1"/>
+      <c r="D313" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
       <c r="A314" s="2" t="s">
@@ -5441,7 +5447,7 @@
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D314" s="1"/>
+      <c r="D314" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
       <c r="A315" s="2" t="s">
@@ -5453,7 +5459,7 @@
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D315" s="1"/>
+      <c r="D315" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
       <c r="A316" s="2" t="s">
@@ -5465,7 +5471,7 @@
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D316" s="1"/>
+      <c r="D316" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
       <c r="A317" s="2" t="s">
@@ -5477,7 +5483,7 @@
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D317" s="1"/>
+      <c r="D317" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
       <c r="A318" s="2" t="s">
@@ -5489,7 +5495,7 @@
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D318" s="1"/>
+      <c r="D318" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
       <c r="A319" s="2" t="s">
@@ -5501,7 +5507,7 @@
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D319" s="1"/>
+      <c r="D319" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
       <c r="A320" s="2" t="s">
@@ -5513,7 +5519,7 @@
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D320" s="1"/>
+      <c r="D320" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
       <c r="A321" s="2" t="s">
@@ -5525,7 +5531,7 @@
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D321" s="1"/>
+      <c r="D321" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
       <c r="A322" s="2" t="s">
@@ -5537,7 +5543,7 @@
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D322" s="1"/>
+      <c r="D322" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
       <c r="A323" s="2" t="s">
@@ -5549,7 +5555,7 @@
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D323" s="1"/>
+      <c r="D323" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
       <c r="A324" s="2" t="s">
@@ -5561,7 +5567,7 @@
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D324" s="1"/>
+      <c r="D324" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
       <c r="A325" s="2" t="s">
@@ -5573,7 +5579,7 @@
       <c r="C325" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D325" s="1"/>
+      <c r="D325" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
       <c r="A326" s="2" t="s">
@@ -5585,7 +5591,7 @@
       <c r="C326" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D326" s="1"/>
+      <c r="D326" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
       <c r="A327" s="2" t="s">
@@ -5597,7 +5603,7 @@
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D327" s="1"/>
+      <c r="D327" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
       <c r="A328" s="2" t="s">
@@ -5609,7 +5615,7 @@
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D328" s="1"/>
+      <c r="D328" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
       <c r="A329" s="2" t="s">
@@ -5621,7 +5627,7 @@
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D329" s="1"/>
+      <c r="D329" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
       <c r="A330" s="2" t="s">
@@ -5633,7 +5639,7 @@
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D330" s="1"/>
+      <c r="D330" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
       <c r="A331" s="2" t="s">
@@ -5645,7 +5651,7 @@
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D331" s="1"/>
+      <c r="D331" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
       <c r="A332" s="2" t="s">
@@ -5657,7 +5663,7 @@
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D332" s="1"/>
+      <c r="D332" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
       <c r="A333" s="2" t="s">
@@ -5669,19 +5675,19 @@
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D333" s="1"/>
+      <c r="D333" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
+      <c r="D334" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
+      <c r="D335" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
       <c r="A336" s="2" t="s">
@@ -5693,7 +5699,7 @@
       <c r="C336" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D336" s="1"/>
+      <c r="D336" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
       <c r="A337" s="2" t="s">
@@ -5705,7 +5711,7 @@
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D337" s="1"/>
+      <c r="D337" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
       <c r="A338" s="2" t="s">
@@ -5717,7 +5723,7 @@
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D338" s="1"/>
+      <c r="D338" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
       <c r="A339" s="2" t="s">
@@ -5729,7 +5735,7 @@
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D339" s="1"/>
+      <c r="D339" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
       <c r="A340" s="2" t="s">
@@ -5741,7 +5747,7 @@
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D340" s="1"/>
+      <c r="D340" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
       <c r="A341" s="2" t="s">
@@ -5753,7 +5759,7 @@
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D341" s="1"/>
+      <c r="D341" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
       <c r="A342" s="2" t="s">
@@ -5765,7 +5771,7 @@
       <c r="C342" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D342" s="1"/>
+      <c r="D342" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
       <c r="A343" s="2" t="s">
@@ -5777,7 +5783,7 @@
       <c r="C343" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D343" s="1"/>
+      <c r="D343" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
       <c r="A344" s="2" t="s">
@@ -5789,7 +5795,7 @@
       <c r="C344" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D344" s="1"/>
+      <c r="D344" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
       <c r="A345" s="2" t="s">
@@ -5801,7 +5807,7 @@
       <c r="C345" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D345" s="1"/>
+      <c r="D345" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
       <c r="A346" s="2" t="s">
@@ -5813,7 +5819,7 @@
       <c r="C346" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D346" s="1"/>
+      <c r="D346" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
       <c r="A347" s="2" t="s">
@@ -5825,7 +5831,7 @@
       <c r="C347" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D347" s="1"/>
+      <c r="D347" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
       <c r="A348" s="2" t="s">
@@ -5837,7 +5843,7 @@
       <c r="C348" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D348" s="1"/>
+      <c r="D348" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
       <c r="A349" s="2" t="s">
@@ -5849,7 +5855,7 @@
       <c r="C349" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D349" s="1"/>
+      <c r="D349" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
       <c r="A350" s="2" t="s">
@@ -5861,7 +5867,7 @@
       <c r="C350" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D350" s="1"/>
+      <c r="D350" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
       <c r="A351" s="2" t="s">
@@ -5873,7 +5879,7 @@
       <c r="C351" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D351" s="1"/>
+      <c r="D351" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
       <c r="A352" s="2" t="s">
@@ -5885,7 +5891,7 @@
       <c r="C352" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D352" s="1"/>
+      <c r="D352" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
       <c r="A353" s="2" t="s">
@@ -5897,19 +5903,19 @@
       <c r="C353" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D353" s="1"/>
+      <c r="D353" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
+      <c r="D354" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
-      <c r="D355" s="1"/>
+      <c r="D355" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
       <c r="A356" s="2" t="s">
@@ -5921,7 +5927,7 @@
       <c r="C356" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D356" s="1"/>
+      <c r="D356" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
       <c r="A357" s="2" t="s">
@@ -5933,7 +5939,7 @@
       <c r="C357" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D357" s="1"/>
+      <c r="D357" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
       <c r="A358" s="2" t="s">
@@ -5945,7 +5951,7 @@
       <c r="C358" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D358" s="1"/>
+      <c r="D358" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
       <c r="A359" s="2" t="s">
@@ -5957,7 +5963,7 @@
       <c r="C359" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D359" s="1"/>
+      <c r="D359" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
       <c r="A360" s="2" t="s">
@@ -5969,7 +5975,7 @@
       <c r="C360" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D360" s="1"/>
+      <c r="D360" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
       <c r="A361" s="2" t="s">
@@ -5981,7 +5987,7 @@
       <c r="C361" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D361" s="1"/>
+      <c r="D361" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
       <c r="A362" s="2" t="s">
@@ -5993,7 +5999,7 @@
       <c r="C362" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D362" s="1"/>
+      <c r="D362" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
       <c r="A363" s="2" t="s">
@@ -6005,7 +6011,7 @@
       <c r="C363" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D363" s="1"/>
+      <c r="D363" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
       <c r="A364" s="2" t="s">
@@ -6017,7 +6023,7 @@
       <c r="C364" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D364" s="1"/>
+      <c r="D364" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
       <c r="A365" s="2" t="s">
@@ -6029,7 +6035,7 @@
       <c r="C365" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D365" s="1"/>
+      <c r="D365" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
       <c r="A366" s="2" t="s">
@@ -6041,7 +6047,7 @@
       <c r="C366" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D366" s="1"/>
+      <c r="D366" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
       <c r="A367" s="2" t="s">
@@ -6053,7 +6059,7 @@
       <c r="C367" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D367" s="1"/>
+      <c r="D367" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
       <c r="A368" s="2" t="s">
@@ -6065,7 +6071,7 @@
       <c r="C368" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D368" s="1"/>
+      <c r="D368" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
       <c r="A369" s="2" t="s">
@@ -6077,7 +6083,7 @@
       <c r="C369" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D369" s="1"/>
+      <c r="D369" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
       <c r="A370" s="2" t="s">
@@ -6089,7 +6095,7 @@
       <c r="C370" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D370" s="1"/>
+      <c r="D370" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
       <c r="A371" s="2" t="s">
@@ -6101,7 +6107,7 @@
       <c r="C371" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D371" s="1"/>
+      <c r="D371" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
       <c r="A372" s="2" t="s">
@@ -6113,7 +6119,7 @@
       <c r="C372" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D372" s="1"/>
+      <c r="D372" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
       <c r="A373" s="2" t="s">
@@ -6125,7 +6131,7 @@
       <c r="C373" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D373" s="1"/>
+      <c r="D373" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
       <c r="A374" s="2" t="s">
@@ -6137,7 +6143,7 @@
       <c r="C374" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D374" s="1"/>
+      <c r="D374" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
       <c r="A375" s="2" t="s">
@@ -6149,7 +6155,7 @@
       <c r="C375" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D375" s="1"/>
+      <c r="D375" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
       <c r="A376" s="2" t="s">
@@ -6161,7 +6167,7 @@
       <c r="C376" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D376" s="1"/>
+      <c r="D376" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5">
       <c r="A377" s="2" t="s">
@@ -6173,7 +6179,7 @@
       <c r="C377" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D377" s="1"/>
+      <c r="D377" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5">
       <c r="A378" s="2" t="s">
@@ -6185,7 +6191,7 @@
       <c r="C378" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D378" s="1"/>
+      <c r="D378" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5">
       <c r="A379" s="2" t="s">
@@ -6197,7 +6203,7 @@
       <c r="C379" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D379" s="1"/>
+      <c r="D379" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5">
       <c r="A380" s="2" t="s">
@@ -6209,7 +6215,7 @@
       <c r="C380" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D380" s="1"/>
+      <c r="D380" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5">
       <c r="A381" s="2" t="s">
@@ -6221,7 +6227,7 @@
       <c r="C381" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D381" s="1"/>
+      <c r="D381" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5">
       <c r="A382" s="2" t="s">
@@ -6233,7 +6239,7 @@
       <c r="C382" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D382" s="1"/>
+      <c r="D382" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5">
       <c r="A383" s="2" t="s">
@@ -6245,7 +6251,7 @@
       <c r="C383" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D383" s="1"/>
+      <c r="D383" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5">
       <c r="A384" s="2" t="s">
@@ -6257,7 +6263,7 @@
       <c r="C384" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D384" s="1"/>
+      <c r="D384" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5">
       <c r="A385" s="2" t="s">
@@ -6269,7 +6275,7 @@
       <c r="C385" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D385" s="1"/>
+      <c r="D385" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5">
       <c r="A386" s="2" t="s">
@@ -6281,7 +6287,7 @@
       <c r="C386" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D386" s="1"/>
+      <c r="D386" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5">
       <c r="A387" s="2" t="s">
@@ -6293,7 +6299,7 @@
       <c r="C387" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D387" s="1"/>
+      <c r="D387" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5">
       <c r="A388" s="2" t="s">
@@ -6305,7 +6311,7 @@
       <c r="C388" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D388" s="1"/>
+      <c r="D388" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5">
       <c r="A389" s="2" t="s">
@@ -6317,7 +6323,7 @@
       <c r="C389" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D389" s="1"/>
+      <c r="D389" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5">
       <c r="A390" s="2" t="s">
@@ -6329,7 +6335,7 @@
       <c r="C390" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D390" s="1"/>
+      <c r="D390" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5">
       <c r="A391" s="2" t="s">
@@ -6341,7 +6347,7 @@
       <c r="C391" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D391" s="1"/>
+      <c r="D391" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5">
       <c r="A392" s="2" t="s">
@@ -6353,7 +6359,7 @@
       <c r="C392" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D392" s="1"/>
+      <c r="D392" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5">
       <c r="A393" s="2" t="s">
@@ -6365,7 +6371,7 @@
       <c r="C393" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D393" s="1"/>
+      <c r="D393" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5">
       <c r="A394" s="2" t="s">
@@ -6377,7 +6383,7 @@
       <c r="C394" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D394" s="1"/>
+      <c r="D394" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5">
       <c r="A395" s="2" t="s">
@@ -6389,7 +6395,7 @@
       <c r="C395" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D395" s="1"/>
+      <c r="D395" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5">
       <c r="A396" s="2" t="s">
@@ -6401,7 +6407,7 @@
       <c r="C396" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D396" s="1"/>
+      <c r="D396" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5">
       <c r="A397" s="2" t="s">
@@ -6413,7 +6419,7 @@
       <c r="C397" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D397" s="1"/>
+      <c r="D397" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5">
       <c r="A398" s="2" t="s">
@@ -6425,7 +6431,7 @@
       <c r="C398" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D398" s="1"/>
+      <c r="D398" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5">
       <c r="A399" s="2" t="s">
@@ -6437,19 +6443,19 @@
       <c r="C399" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D399" s="1"/>
+      <c r="D399" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
-      <c r="D400" s="1"/>
+      <c r="D400" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
+      <c r="D401" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5">
       <c r="A402" s="2" t="s">
@@ -6461,7 +6467,7 @@
       <c r="C402" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D402" s="1"/>
+      <c r="D402" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5">
       <c r="A403" s="2" t="s">
@@ -6473,7 +6479,7 @@
       <c r="C403" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D403" s="1"/>
+      <c r="D403" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5">
       <c r="A404" s="2" t="s">
@@ -6485,7 +6491,7 @@
       <c r="C404" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D404" s="1"/>
+      <c r="D404" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5">
       <c r="A405" s="2" t="s">
@@ -6497,7 +6503,7 @@
       <c r="C405" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D405" s="1"/>
+      <c r="D405" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5">
       <c r="A406" s="2" t="s">
@@ -6509,7 +6515,7 @@
       <c r="C406" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D406" s="1"/>
+      <c r="D406" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5">
       <c r="A407" s="2" t="s">
@@ -6521,19 +6527,19 @@
       <c r="C407" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D407" s="1"/>
+      <c r="D407" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
-      <c r="D408" s="1"/>
+      <c r="D408" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
-      <c r="D409" s="1"/>
+      <c r="D409" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5">
       <c r="A410" s="2" t="s">
@@ -6545,7 +6551,7 @@
       <c r="C410" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D410" s="1"/>
+      <c r="D410" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5">
       <c r="A411" s="2" t="s">
@@ -6557,7 +6563,7 @@
       <c r="C411" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D411" s="1"/>
+      <c r="D411" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5">
       <c r="A412" s="2" t="s">
@@ -6569,7 +6575,7 @@
       <c r="C412" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D412" s="1"/>
+      <c r="D412" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5">
       <c r="A413" s="2" t="s">
@@ -6581,7 +6587,7 @@
       <c r="C413" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D413" s="1"/>
+      <c r="D413" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5">
       <c r="A414" s="2" t="s">
@@ -6593,7 +6599,7 @@
       <c r="C414" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D414" s="1"/>
+      <c r="D414" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5">
       <c r="A415" s="2" t="s">
@@ -6605,7 +6611,7 @@
       <c r="C415" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D415" s="1"/>
+      <c r="D415" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5">
       <c r="A416" s="2" t="s">
@@ -6617,7 +6623,7 @@
       <c r="C416" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D416" s="1"/>
+      <c r="D416" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5">
       <c r="A417" s="2" t="s">
@@ -6629,7 +6635,7 @@
       <c r="C417" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D417" s="1"/>
+      <c r="D417" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5">
       <c r="A418" s="2" t="s">
@@ -6641,7 +6647,7 @@
       <c r="C418" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D418" s="1"/>
+      <c r="D418" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5">
       <c r="A419" s="2" t="s">
@@ -6653,7 +6659,7 @@
       <c r="C419" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D419" s="1"/>
+      <c r="D419" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5">
       <c r="A420" s="2" t="s">
@@ -6665,7 +6671,7 @@
       <c r="C420" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D420" s="1"/>
+      <c r="D420" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5">
       <c r="A421" s="2" t="s">
@@ -6677,7 +6683,7 @@
       <c r="C421" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D421" s="1"/>
+      <c r="D421" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5">
       <c r="A422" s="2" t="s">
@@ -6689,7 +6695,7 @@
       <c r="C422" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D422" s="1"/>
+      <c r="D422" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5">
       <c r="A423" s="2" t="s">
@@ -6701,7 +6707,7 @@
       <c r="C423" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D423" s="1"/>
+      <c r="D423" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5">
       <c r="A424" s="2" t="s">
@@ -6713,7 +6719,7 @@
       <c r="C424" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D424" s="1"/>
+      <c r="D424" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5">
       <c r="A425" s="2" t="s">
@@ -6725,7 +6731,7 @@
       <c r="C425" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D425" s="1"/>
+      <c r="D425" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5">
       <c r="A426" s="2" t="s">
@@ -6737,7 +6743,7 @@
       <c r="C426" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D426" s="1"/>
+      <c r="D426" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5">
       <c r="A427" s="2" t="s">
@@ -6749,7 +6755,7 @@
       <c r="C427" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D427" s="1"/>
+      <c r="D427" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5">
       <c r="A428" s="2" t="s">
@@ -6761,7 +6767,7 @@
       <c r="C428" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D428" s="1"/>
+      <c r="D428" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5">
       <c r="A429" s="2" t="s">
@@ -6773,7 +6779,7 @@
       <c r="C429" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D429" s="1"/>
+      <c r="D429" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5">
       <c r="A430" s="2" t="s">
@@ -6785,7 +6791,7 @@
       <c r="C430" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D430" s="1"/>
+      <c r="D430" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5">
       <c r="A431" s="2" t="s">
@@ -6797,7 +6803,7 @@
       <c r="C431" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D431" s="1"/>
+      <c r="D431" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5">
       <c r="A432" s="2" t="s">
@@ -6809,7 +6815,7 @@
       <c r="C432" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D432" s="1"/>
+      <c r="D432" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5">
       <c r="A433" s="2" t="s">
@@ -6821,7 +6827,7 @@
       <c r="C433" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D433" s="1"/>
+      <c r="D433" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5">
       <c r="A434" s="2" t="s">
@@ -6833,7 +6839,7 @@
       <c r="C434" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D434" s="1"/>
+      <c r="D434" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5">
       <c r="A435" s="2" t="s">
@@ -6845,7 +6851,7 @@
       <c r="C435" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D435" s="1"/>
+      <c r="D435" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5">
       <c r="A436" s="2" t="s">
@@ -6857,7 +6863,7 @@
       <c r="C436" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D436" s="1"/>
+      <c r="D436" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5">
       <c r="A437" s="2" t="s">
@@ -6869,7 +6875,7 @@
       <c r="C437" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D437" s="1"/>
+      <c r="D437" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5">
       <c r="A438" s="2" t="s">
@@ -6881,7 +6887,7 @@
       <c r="C438" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D438" s="1"/>
+      <c r="D438" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5">
       <c r="A439" s="2" t="s">
@@ -6893,7 +6899,7 @@
       <c r="C439" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D439" s="1"/>
+      <c r="D439" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5">
       <c r="A440" s="2" t="s">
@@ -6905,7 +6911,7 @@
       <c r="C440" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D440" s="1"/>
+      <c r="D440" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5">
       <c r="A441" s="2" t="s">
@@ -6917,7 +6923,7 @@
       <c r="C441" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D441" s="1"/>
+      <c r="D441" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5">
       <c r="A442" s="2" t="s">
@@ -6929,7 +6935,7 @@
       <c r="C442" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D442" s="1"/>
+      <c r="D442" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5">
       <c r="A443" s="2" t="s">
@@ -6941,7 +6947,7 @@
       <c r="C443" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D443" s="1"/>
+      <c r="D443" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5">
       <c r="A444" s="2" t="s">
@@ -6953,7 +6959,7 @@
       <c r="C444" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D444" s="1"/>
+      <c r="D444" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5">
       <c r="A445" s="2" t="s">
@@ -6965,7 +6971,7 @@
       <c r="C445" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D445" s="1"/>
+      <c r="D445" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5">
       <c r="A446" s="2" t="s">
@@ -6977,7 +6983,7 @@
       <c r="C446" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D446" s="1"/>
+      <c r="D446" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5">
       <c r="A447" s="2" t="s">
@@ -6989,7 +6995,7 @@
       <c r="C447" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D447" s="1"/>
+      <c r="D447" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5">
       <c r="A448" s="2" t="s">
@@ -7001,7 +7007,7 @@
       <c r="C448" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D448" s="1"/>
+      <c r="D448" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5">
       <c r="A449" s="2" t="s">
@@ -7013,7 +7019,7 @@
       <c r="C449" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D449" s="1"/>
+      <c r="D449" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5">
       <c r="A450" s="2" t="s">
@@ -7025,7 +7031,7 @@
       <c r="C450" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D450" s="1"/>
+      <c r="D450" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5">
       <c r="A451" s="2" t="s">
@@ -7037,7 +7043,7 @@
       <c r="C451" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D451" s="1"/>
+      <c r="D451" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5">
       <c r="A452" s="2" t="s">
@@ -7049,7 +7055,7 @@
       <c r="C452" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D452" s="1"/>
+      <c r="D452" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5">
       <c r="A453" s="2" t="s">
@@ -7061,7 +7067,7 @@
       <c r="C453" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D453" s="1"/>
+      <c r="D453" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5">
       <c r="A454" s="2" t="s">
@@ -7073,7 +7079,7 @@
       <c r="C454" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D454" s="1"/>
+      <c r="D454" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
       <c r="A455" s="2" t="s">
@@ -7085,7 +7091,7 @@
       <c r="C455" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D455" s="1"/>
+      <c r="D455" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5">
       <c r="A456" s="2" t="s">
@@ -7097,7 +7103,7 @@
       <c r="C456" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D456" s="1"/>
+      <c r="D456" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5">
       <c r="A457" s="2" t="s">
@@ -7109,7 +7115,7 @@
       <c r="C457" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D457" s="1"/>
+      <c r="D457" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5">
       <c r="A458" s="2" t="s">
@@ -7121,7 +7127,7 @@
       <c r="C458" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D458" s="1"/>
+      <c r="D458" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5">
       <c r="A459" s="2" t="s">
@@ -7133,7 +7139,7 @@
       <c r="C459" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D459" s="1"/>
+      <c r="D459" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5">
       <c r="A460" s="2" t="s">
@@ -7145,7 +7151,7 @@
       <c r="C460" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D460" s="1"/>
+      <c r="D460" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5">
       <c r="A461" s="2" t="s">
@@ -7157,7 +7163,7 @@
       <c r="C461" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D461" s="1"/>
+      <c r="D461" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5">
       <c r="A462" s="2" t="s">
@@ -7169,7 +7175,7 @@
       <c r="C462" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D462" s="1"/>
+      <c r="D462" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5">
       <c r="A463" s="2" t="s">
@@ -7181,7 +7187,7 @@
       <c r="C463" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D463" s="1"/>
+      <c r="D463" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="19.5">
       <c r="A464" s="2" t="s">
@@ -7193,7 +7199,7 @@
       <c r="C464" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D464" s="1"/>
+      <c r="D464" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="19.5">
       <c r="A465" s="2" t="s">
@@ -7205,7 +7211,7 @@
       <c r="C465" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D465" s="1"/>
+      <c r="D465" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="19.5">
       <c r="A466" s="2" t="s">
@@ -7217,7 +7223,7 @@
       <c r="C466" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D466" s="1"/>
+      <c r="D466" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="19.5">
       <c r="A467" s="2" t="s">
@@ -7229,7 +7235,7 @@
       <c r="C467" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D467" s="1"/>
+      <c r="D467" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="19.5">
       <c r="A468" s="2" t="s">
@@ -7241,7 +7247,7 @@
       <c r="C468" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D468" s="1"/>
+      <c r="D468" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="19.5">
       <c r="A469" s="2" t="s">
@@ -7253,19 +7259,19 @@
       <c r="C469" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D469" s="1"/>
+      <c r="D469" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="19.5">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
-      <c r="D470" s="1"/>
+      <c r="D470" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="19.5">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
-      <c r="D471" s="1"/>
+      <c r="D471" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="19.5">
       <c r="A472" s="2" t="s">
@@ -7277,7 +7283,7 @@
       <c r="C472" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D472" s="1"/>
+      <c r="D472" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="19.5">
       <c r="A473" s="2" t="s">
@@ -7289,7 +7295,7 @@
       <c r="C473" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D473" s="1"/>
+      <c r="D473" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="19.5">
       <c r="A474" s="2" t="s">
@@ -7301,7 +7307,7 @@
       <c r="C474" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D474" s="1"/>
+      <c r="D474" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="19.5">
       <c r="A475" s="2" t="s">
@@ -7313,7 +7319,7 @@
       <c r="C475" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D475" s="1"/>
+      <c r="D475" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="19.5">
       <c r="A476" s="2" t="s">
@@ -7325,7 +7331,7 @@
       <c r="C476" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D476" s="1"/>
+      <c r="D476" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="19.5">
       <c r="A477" s="2" t="s">
@@ -7337,7 +7343,7 @@
       <c r="C477" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D477" s="1"/>
+      <c r="D477" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="19.5">
       <c r="A478" s="2" t="s">
@@ -7349,7 +7355,7 @@
       <c r="C478" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D478" s="1"/>
+      <c r="D478" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="19.5">
       <c r="A479" s="2" t="s">
@@ -7361,7 +7367,7 @@
       <c r="C479" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D479" s="1"/>
+      <c r="D479" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="19.5">
       <c r="A480" s="2" t="s">
@@ -7373,7 +7379,7 @@
       <c r="C480" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D480" s="1"/>
+      <c r="D480" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="19.5">
       <c r="A481" s="2" t="s">
@@ -7385,7 +7391,7 @@
       <c r="C481" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D481" s="1"/>
+      <c r="D481" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Question.xlsx
+++ b/Question.xlsx
@@ -1789,7 +1789,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="40.57642857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="88.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>

--- a/Question.xlsx
+++ b/Question.xlsx
@@ -1422,13 +1422,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1466,10 +1472,10 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">

--- a/Question.xlsx
+++ b/Question.xlsx
@@ -1422,19 +1422,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1470,12 +1464,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1795,45 +1786,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="88.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="88.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1841,5563 +1832,5563 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3"/>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3"/>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3"/>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3"/>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3"/>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3"/>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3"/>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3"/>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3"/>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="3"/>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="3"/>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="3"/>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="3"/>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3"/>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3"/>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="3"/>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="3"/>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3"/>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="3"/>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3"/>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="3"/>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3"/>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3"/>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="3"/>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="3"/>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="3"/>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="3"/>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="3"/>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="3"/>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="3"/>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="3"/>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3"/>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="3"/>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3"/>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3"/>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="3"/>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3"/>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="3"/>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="3"/>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3"/>
+      <c r="C63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="3"/>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="3"/>
+      <c r="C65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="3"/>
+      <c r="C66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="3"/>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="3"/>
+      <c r="C68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="3"/>
+      <c r="C69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="3"/>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="3"/>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="3"/>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="3"/>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="3"/>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="3"/>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="3"/>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="3"/>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="3"/>
+      <c r="C78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="3"/>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="3"/>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="3"/>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="3"/>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="3"/>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="3"/>
+      <c r="C84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="3"/>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="3"/>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="3"/>
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="3"/>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="3"/>
+      <c r="C89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="3"/>
+      <c r="C90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="3"/>
+      <c r="C91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="3"/>
+      <c r="C92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="3"/>
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="3"/>
+      <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="3"/>
+      <c r="C95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="3"/>
+      <c r="C96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="3"/>
+      <c r="C97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="3"/>
+      <c r="C98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="3"/>
+      <c r="C101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="3"/>
+      <c r="C102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="3"/>
+      <c r="C103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="3"/>
+      <c r="C104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="3"/>
+      <c r="C105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="3"/>
+      <c r="C106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="3"/>
+      <c r="C107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="3"/>
+      <c r="C108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="3"/>
+      <c r="C109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="3"/>
+      <c r="C110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="3"/>
+      <c r="C111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="3"/>
+      <c r="C112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="3"/>
+      <c r="C113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="3"/>
+      <c r="C114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="3"/>
+      <c r="C115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="3"/>
+      <c r="C116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="3"/>
+      <c r="C117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="3"/>
+      <c r="C118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="3"/>
+      <c r="C119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="3"/>
+      <c r="C120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="3"/>
+      <c r="C121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="3"/>
+      <c r="C122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="3"/>
+      <c r="C123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="3"/>
+      <c r="C124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="3"/>
+      <c r="C125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="3"/>
+      <c r="C126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="3"/>
+      <c r="C127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="3"/>
+      <c r="C128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="3"/>
+      <c r="C129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="3"/>
+      <c r="C130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="3"/>
+      <c r="C131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="3"/>
+      <c r="C132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="3"/>
+      <c r="C133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="3"/>
+      <c r="C134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="3"/>
+      <c r="C135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="3"/>
+      <c r="C136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="3"/>
+      <c r="D137" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="3"/>
+      <c r="D138" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="3"/>
+      <c r="C139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="3"/>
+      <c r="C140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="3"/>
+      <c r="C141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="3"/>
+      <c r="C142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="3"/>
+      <c r="C143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="3"/>
+      <c r="C144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="3"/>
+      <c r="C145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" s="3"/>
+      <c r="C146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="3"/>
+      <c r="C147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="3"/>
+      <c r="C148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="3"/>
+      <c r="C149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="3"/>
+      <c r="C150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="3"/>
+      <c r="C151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="3"/>
+      <c r="C152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="3"/>
+      <c r="C153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="3"/>
+      <c r="C154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="3"/>
+      <c r="C155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="3"/>
+      <c r="C156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="3"/>
+      <c r="C157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="3"/>
+      <c r="C158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="3"/>
+      <c r="C159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="3"/>
+      <c r="C160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="3"/>
+      <c r="C161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="3"/>
+      <c r="C162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="3"/>
+      <c r="C163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="3"/>
+      <c r="C164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="3"/>
+      <c r="C165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="3"/>
+      <c r="C166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="3"/>
+      <c r="C167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="3"/>
+      <c r="C168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="3"/>
+      <c r="C169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="3"/>
+      <c r="C170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" s="3"/>
+      <c r="C171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="3"/>
+      <c r="C172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="3"/>
+      <c r="C173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="3"/>
+      <c r="C174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="3"/>
+      <c r="D175" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="3"/>
+      <c r="D176" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="3"/>
+      <c r="C177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="3"/>
+      <c r="C178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" s="3"/>
+      <c r="C179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="3"/>
+      <c r="C180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" s="3"/>
+      <c r="C181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" s="3"/>
+      <c r="C182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="3"/>
+      <c r="C183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="3"/>
+      <c r="C184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="3"/>
+      <c r="C185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="3"/>
+      <c r="C186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="3"/>
+      <c r="C187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="3"/>
+      <c r="C188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="3"/>
+      <c r="C189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" s="3"/>
+      <c r="C190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="3"/>
+      <c r="C191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="3"/>
+      <c r="C192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="3"/>
+      <c r="C193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="3"/>
+      <c r="C194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" s="3"/>
+      <c r="C195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="3"/>
+      <c r="C196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="3"/>
+      <c r="C197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="3"/>
+      <c r="C198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="3"/>
+      <c r="C199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="3"/>
+      <c r="C200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="3"/>
+      <c r="C201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="3"/>
+      <c r="C202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="3"/>
+      <c r="C203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="3"/>
+      <c r="C204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="3"/>
+      <c r="C205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="3"/>
+      <c r="C206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="3"/>
+      <c r="C207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="3"/>
+      <c r="C208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="3"/>
+      <c r="C209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="3"/>
+      <c r="C210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="3"/>
+      <c r="C211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="3"/>
+      <c r="D212" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="3"/>
+      <c r="D213" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="3"/>
+      <c r="C214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="3"/>
+      <c r="C215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="3"/>
+      <c r="C216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="3"/>
+      <c r="C217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="3"/>
+      <c r="C218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="3"/>
+      <c r="C219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="3"/>
+      <c r="C220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="3"/>
+      <c r="C221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="3"/>
+      <c r="C222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="3"/>
+      <c r="C223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="3"/>
+      <c r="C224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="3"/>
+      <c r="C225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="3"/>
+      <c r="C226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="3"/>
+      <c r="C227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="3"/>
+      <c r="C228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="3"/>
+      <c r="C229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="3"/>
+      <c r="C230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="3"/>
+      <c r="C231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="3"/>
+      <c r="C232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="3"/>
+      <c r="C233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="3"/>
+      <c r="C234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="3"/>
+      <c r="C235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="19.5">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="3"/>
+      <c r="D236" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="19.5">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
-      <c r="D237" s="3"/>
+      <c r="D237" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="3"/>
+      <c r="C238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="3"/>
+      <c r="C239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="3"/>
+      <c r="C240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="3"/>
+      <c r="C241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="3"/>
+      <c r="C242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="3"/>
+      <c r="C243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="3"/>
+      <c r="C244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="3"/>
+      <c r="C245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="3"/>
+      <c r="C246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="3"/>
+      <c r="C247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="3"/>
+      <c r="C248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="3"/>
+      <c r="C249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="3"/>
+      <c r="C250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="3"/>
+      <c r="C251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="3"/>
+      <c r="C252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="3"/>
+      <c r="C253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
-      <c r="A254" s="2" t="s">
+      <c r="A254" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="3"/>
+      <c r="C254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="3"/>
+      <c r="C255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="3"/>
+      <c r="C256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="3"/>
+      <c r="C257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="3"/>
+      <c r="C258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
-      <c r="A259" s="2" t="s">
+      <c r="A259" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="3"/>
+      <c r="C259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="3"/>
+      <c r="C260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="3"/>
+      <c r="C261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="3"/>
+      <c r="C262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="3"/>
+      <c r="C263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="3"/>
+      <c r="C264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" s="3"/>
+      <c r="C265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
-      <c r="A266" s="2" t="s">
+      <c r="A266" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="3"/>
+      <c r="C266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D267" s="3"/>
+      <c r="C267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="3"/>
+      <c r="C268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="3"/>
+      <c r="C269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
-      <c r="A270" s="2" t="s">
+      <c r="A270" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="3"/>
+      <c r="C270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="3"/>
+      <c r="C271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
-      <c r="A272" s="2" t="s">
+      <c r="A272" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="3"/>
+      <c r="C272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="19.5">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
-      <c r="D273" s="3"/>
+      <c r="D273" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="19.5">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
-      <c r="D274" s="3"/>
+      <c r="D274" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="3"/>
+      <c r="C275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="3"/>
+      <c r="C276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="3"/>
+      <c r="C277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D278" s="3"/>
+      <c r="C278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D279" s="3"/>
+      <c r="C279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="3"/>
+      <c r="C280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
-      <c r="A281" s="2" t="s">
+      <c r="A281" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" s="3"/>
+      <c r="C281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
-      <c r="A282" s="2" t="s">
+      <c r="A282" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D282" s="3"/>
+      <c r="C282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D283" s="3"/>
+      <c r="C283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
-      <c r="A284" s="2" t="s">
+      <c r="A284" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C284" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="3"/>
+      <c r="C284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
-      <c r="A285" s="2" t="s">
+      <c r="A285" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="3"/>
+      <c r="C285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
-      <c r="A286" s="2" t="s">
+      <c r="A286" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D286" s="3"/>
+      <c r="C286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="3"/>
+      <c r="C287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D288" s="3"/>
+      <c r="C288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
-      <c r="A289" s="2" t="s">
+      <c r="A289" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" s="3"/>
+      <c r="C289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
-      <c r="A290" s="2" t="s">
+      <c r="A290" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="3"/>
+      <c r="C290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D291" s="3"/>
+      <c r="C291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="3"/>
+      <c r="C292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
-      <c r="A293" s="2" t="s">
+      <c r="A293" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="3"/>
+      <c r="C293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="19.5">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
-      <c r="D294" s="3"/>
+      <c r="D294" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="19.5">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
-      <c r="D295" s="3"/>
+      <c r="D295" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
-      <c r="A296" s="2" t="s">
+      <c r="A296" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="3"/>
+      <c r="C296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D297" s="3"/>
+      <c r="C297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
-      <c r="A298" s="2" t="s">
+      <c r="A298" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D298" s="3"/>
+      <c r="C298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="3"/>
+      <c r="C299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
-      <c r="A300" s="2" t="s">
+      <c r="A300" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D300" s="3"/>
+      <c r="C300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D301" s="3"/>
+      <c r="C301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
-      <c r="A302" s="2" t="s">
+      <c r="A302" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="3"/>
+      <c r="C302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C303" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D303" s="3"/>
+      <c r="C303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
-      <c r="A304" s="2" t="s">
+      <c r="A304" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="3"/>
+      <c r="C304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
-      <c r="A305" s="2" t="s">
+      <c r="A305" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="3"/>
+      <c r="C305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C306" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D306" s="3"/>
+      <c r="C306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D307" s="3"/>
+      <c r="C307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C308" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="3"/>
+      <c r="C308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C309" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D309" s="3"/>
+      <c r="C309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C310" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D310" s="3"/>
+      <c r="C310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D311" s="3"/>
+      <c r="C311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
-      <c r="A312" s="2" t="s">
+      <c r="A312" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C312" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D312" s="3"/>
+      <c r="C312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C313" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313" s="3"/>
+      <c r="C313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C314" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D314" s="3"/>
+      <c r="C314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
-      <c r="A315" s="2" t="s">
+      <c r="A315" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D315" s="3"/>
+      <c r="C315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
-      <c r="A316" s="2" t="s">
+      <c r="A316" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D316" s="3"/>
+      <c r="C316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D317" s="3"/>
+      <c r="C317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
-      <c r="A318" s="2" t="s">
+      <c r="A318" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D318" s="3"/>
+      <c r="C318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D319" s="3"/>
+      <c r="C319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C320" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D320" s="3"/>
+      <c r="C320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D321" s="3"/>
+      <c r="C321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D322" s="3"/>
+      <c r="C322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C323" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D323" s="3"/>
+      <c r="C323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C324" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D324" s="3"/>
+      <c r="C324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D324" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C325" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D325" s="3"/>
+      <c r="C325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D326" s="3"/>
+      <c r="C326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D327" s="3"/>
+      <c r="C327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C328" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D328" s="3"/>
+      <c r="C328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C329" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D329" s="3"/>
+      <c r="C329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C330" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D330" s="3"/>
+      <c r="C330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D331" s="3"/>
+      <c r="C331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D332" s="3"/>
+      <c r="C332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C333" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D333" s="3"/>
+      <c r="C333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="19.5">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
-      <c r="D334" s="3"/>
+      <c r="D334" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="19.5">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
-      <c r="D335" s="3"/>
+      <c r="D335" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D336" s="3"/>
+      <c r="C336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D337" s="3"/>
+      <c r="C337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
-      <c r="A338" s="2" t="s">
+      <c r="A338" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D338" s="3"/>
+      <c r="C338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D339" s="3"/>
+      <c r="C339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D340" s="3"/>
+      <c r="C340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D341" s="3"/>
+      <c r="C341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D342" s="3"/>
+      <c r="C342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D343" s="3"/>
+      <c r="C343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D344" s="3"/>
+      <c r="C344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D344" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D345" s="3"/>
+      <c r="C345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D345" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D346" s="3"/>
+      <c r="C346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
-      <c r="A347" s="2" t="s">
+      <c r="A347" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D347" s="3"/>
+      <c r="C347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D347" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C348" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D348" s="3"/>
+      <c r="C348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D349" s="3"/>
+      <c r="C349" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
-      <c r="A350" s="2" t="s">
+      <c r="A350" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C350" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D350" s="3"/>
+      <c r="C350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C351" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D351" s="3"/>
+      <c r="C351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
-      <c r="A352" s="2" t="s">
+      <c r="A352" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D352" s="3"/>
+      <c r="C352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D353" s="3"/>
+      <c r="C353" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="19.5">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
-      <c r="D354" s="3"/>
+      <c r="D354" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="19.5">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
-      <c r="D355" s="3"/>
+      <c r="D355" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C356" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D356" s="3"/>
+      <c r="C356" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C357" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D357" s="3"/>
+      <c r="C357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
-      <c r="A358" s="2" t="s">
+      <c r="A358" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C358" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D358" s="3"/>
+      <c r="C358" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D358" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D359" s="3"/>
+      <c r="C359" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C360" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D360" s="3"/>
+      <c r="C360" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C361" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D361" s="3"/>
+      <c r="C361" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C362" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D362" s="3"/>
+      <c r="C362" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D362" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C363" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D363" s="3"/>
+      <c r="C363" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D363" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C364" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D364" s="3"/>
+      <c r="C364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D365" s="3"/>
+      <c r="C365" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
-      <c r="A366" s="2" t="s">
+      <c r="A366" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D366" s="3"/>
+      <c r="C366" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C367" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D367" s="3"/>
+      <c r="C367" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C368" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D368" s="3"/>
+      <c r="C368" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D369" s="3"/>
+      <c r="C369" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D370" s="3"/>
+      <c r="C370" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D370" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D371" s="3"/>
+      <c r="C371" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
-      <c r="A372" s="2" t="s">
+      <c r="A372" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C372" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D372" s="3"/>
+      <c r="C372" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D372" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D373" s="3"/>
+      <c r="C373" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
-      <c r="A374" s="2" t="s">
+      <c r="A374" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D374" s="3"/>
+      <c r="C374" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D374" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
-      <c r="A375" s="2" t="s">
+      <c r="A375" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D375" s="3"/>
+      <c r="C375" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D376" s="3"/>
+      <c r="C376" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D376" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5">
-      <c r="A377" s="2" t="s">
+      <c r="A377" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C377" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D377" s="3"/>
+      <c r="C377" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D377" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D378" s="3"/>
+      <c r="C378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D378" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D379" s="3"/>
+      <c r="C379" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D379" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D380" s="3"/>
+      <c r="C380" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5">
-      <c r="A381" s="2" t="s">
+      <c r="A381" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C381" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D381" s="3"/>
+      <c r="C381" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D381" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5">
-      <c r="A382" s="2" t="s">
+      <c r="A382" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D382" s="3"/>
+      <c r="C382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D382" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D383" s="3"/>
+      <c r="C383" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5">
-      <c r="A384" s="2" t="s">
+      <c r="A384" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D384" s="3"/>
+      <c r="C384" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D384" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D385" s="3"/>
+      <c r="C385" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D385" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D386" s="3"/>
+      <c r="C386" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C387" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D387" s="3"/>
+      <c r="C387" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D387" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C388" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D388" s="3"/>
+      <c r="C388" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D388" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C389" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D389" s="3"/>
+      <c r="C389" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5">
-      <c r="A390" s="2" t="s">
+      <c r="A390" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C390" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D390" s="3"/>
+      <c r="C390" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D390" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C391" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D391" s="3"/>
+      <c r="C391" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D391" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5">
-      <c r="A392" s="2" t="s">
+      <c r="A392" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C392" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D392" s="3"/>
+      <c r="C392" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D392" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5">
-      <c r="A393" s="2" t="s">
+      <c r="A393" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C393" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D393" s="3"/>
+      <c r="C393" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D393" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D394" s="3"/>
+      <c r="C394" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D394" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C395" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D395" s="3"/>
+      <c r="C395" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D395" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5">
-      <c r="A396" s="2" t="s">
+      <c r="A396" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D396" s="3"/>
+      <c r="C396" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D396" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D397" s="3"/>
+      <c r="C397" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D397" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5">
-      <c r="A398" s="2" t="s">
+      <c r="A398" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D398" s="3"/>
+      <c r="C398" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D398" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5">
-      <c r="A399" s="2" t="s">
+      <c r="A399" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C399" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D399" s="3"/>
+      <c r="C399" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="19.5">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
-      <c r="D400" s="3"/>
+      <c r="D400" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="19.5">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
-      <c r="D401" s="3"/>
+      <c r="D401" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5">
-      <c r="A402" s="2" t="s">
+      <c r="A402" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D402" s="3"/>
+      <c r="C402" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D402" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C403" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D403" s="3"/>
+      <c r="C403" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C404" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D404" s="3"/>
+      <c r="C404" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D404" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D405" s="3"/>
+      <c r="C405" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D405" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5">
-      <c r="A406" s="2" t="s">
+      <c r="A406" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C406" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D406" s="3"/>
+      <c r="C406" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D406" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5">
-      <c r="A407" s="2" t="s">
+      <c r="A407" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D407" s="3"/>
+      <c r="C407" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D407" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="19.5">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
-      <c r="D408" s="3"/>
+      <c r="D408" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="19.5">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
-      <c r="D409" s="3"/>
+      <c r="D409" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5">
-      <c r="A410" s="2" t="s">
+      <c r="A410" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C410" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D410" s="3"/>
+      <c r="C410" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D410" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5">
-      <c r="A411" s="2" t="s">
+      <c r="A411" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C411" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D411" s="3"/>
+      <c r="C411" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D411" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5">
-      <c r="A412" s="2" t="s">
+      <c r="A412" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C412" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D412" s="3"/>
+      <c r="C412" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D412" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5">
-      <c r="A413" s="2" t="s">
+      <c r="A413" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C413" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D413" s="3"/>
+      <c r="C413" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D413" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5">
-      <c r="A414" s="2" t="s">
+      <c r="A414" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C414" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D414" s="3"/>
+      <c r="C414" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D414" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D415" s="3"/>
+      <c r="C415" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D415" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C416" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D416" s="3"/>
+      <c r="C416" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5">
-      <c r="A417" s="2" t="s">
+      <c r="A417" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C417" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D417" s="3"/>
+      <c r="C417" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D417" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D418" s="3"/>
+      <c r="C418" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D418" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D419" s="3"/>
+      <c r="C419" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D419" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5">
-      <c r="A420" s="2" t="s">
+      <c r="A420" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D420" s="3"/>
+      <c r="C420" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D420" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5">
-      <c r="A421" s="2" t="s">
+      <c r="A421" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C421" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D421" s="3"/>
+      <c r="C421" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D421" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5">
-      <c r="A422" s="2" t="s">
+      <c r="A422" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C422" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D422" s="3"/>
+      <c r="C422" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D422" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C423" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D423" s="3"/>
+      <c r="C423" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D423" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C424" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D424" s="3"/>
+      <c r="C424" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D424" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C425" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D425" s="3"/>
+      <c r="C425" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D425" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5">
-      <c r="A426" s="2" t="s">
+      <c r="A426" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C426" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D426" s="3"/>
+      <c r="C426" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D426" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5">
-      <c r="A427" s="2" t="s">
+      <c r="A427" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D427" s="3"/>
+      <c r="C427" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D427" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5">
-      <c r="A428" s="2" t="s">
+      <c r="A428" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C428" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D428" s="3"/>
+      <c r="C428" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D428" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5">
-      <c r="A429" s="2" t="s">
+      <c r="A429" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C429" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D429" s="3"/>
+      <c r="C429" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D429" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5">
-      <c r="A430" s="2" t="s">
+      <c r="A430" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D430" s="3"/>
+      <c r="C430" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D430" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5">
-      <c r="A431" s="2" t="s">
+      <c r="A431" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D431" s="3"/>
+      <c r="C431" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D431" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5">
-      <c r="A432" s="2" t="s">
+      <c r="A432" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C432" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D432" s="3"/>
+      <c r="C432" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D432" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5">
-      <c r="A433" s="2" t="s">
+      <c r="A433" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D433" s="3"/>
+      <c r="C433" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D433" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5">
-      <c r="A434" s="2" t="s">
+      <c r="A434" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C434" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D434" s="3"/>
+      <c r="C434" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D434" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C435" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D435" s="3"/>
+      <c r="C435" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D435" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5">
-      <c r="A436" s="2" t="s">
+      <c r="A436" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D436" s="3"/>
+      <c r="C436" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D436" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5">
-      <c r="A437" s="2" t="s">
+      <c r="A437" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C437" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D437" s="3"/>
+      <c r="C437" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D437" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5">
-      <c r="A438" s="2" t="s">
+      <c r="A438" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C438" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D438" s="3"/>
+      <c r="C438" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D438" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5">
-      <c r="A439" s="2" t="s">
+      <c r="A439" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C439" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D439" s="3"/>
+      <c r="C439" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D439" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5">
-      <c r="A440" s="2" t="s">
+      <c r="A440" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D440" s="3"/>
+      <c r="C440" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D440" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5">
-      <c r="A441" s="2" t="s">
+      <c r="A441" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D441" s="3"/>
+      <c r="C441" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D441" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5">
-      <c r="A442" s="2" t="s">
+      <c r="A442" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C442" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D442" s="3"/>
+      <c r="C442" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D442" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C443" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D443" s="3"/>
+      <c r="C443" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D443" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5">
-      <c r="A444" s="2" t="s">
+      <c r="A444" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C444" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D444" s="3"/>
+      <c r="C444" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D444" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D445" s="3"/>
+      <c r="C445" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D445" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5">
-      <c r="A446" s="2" t="s">
+      <c r="A446" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D446" s="3"/>
+      <c r="C446" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D446" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5">
-      <c r="A447" s="2" t="s">
+      <c r="A447" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D447" s="3"/>
+      <c r="C447" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D447" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D448" s="3"/>
+      <c r="C448" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D448" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5">
-      <c r="A449" s="2" t="s">
+      <c r="A449" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B449" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D449" s="3"/>
+      <c r="C449" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D449" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5">
-      <c r="A450" s="2" t="s">
+      <c r="A450" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C450" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D450" s="3"/>
+      <c r="C450" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D450" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C451" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D451" s="3"/>
+      <c r="C451" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D451" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5">
-      <c r="A452" s="2" t="s">
+      <c r="A452" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D452" s="3"/>
+      <c r="C452" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D452" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5">
-      <c r="A453" s="2" t="s">
+      <c r="A453" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D453" s="3"/>
+      <c r="C453" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D453" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5">
-      <c r="A454" s="2" t="s">
+      <c r="A454" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B454" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D454" s="3"/>
+      <c r="C454" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D454" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
-      <c r="A455" s="2" t="s">
+      <c r="A455" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D455" s="3"/>
+      <c r="C455" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D455" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D456" s="3"/>
+      <c r="C456" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D456" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5">
-      <c r="A457" s="2" t="s">
+      <c r="A457" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D457" s="3"/>
+      <c r="C457" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D457" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5">
-      <c r="A458" s="2" t="s">
+      <c r="A458" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B458" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C458" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D458" s="3"/>
+      <c r="C458" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D458" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5">
-      <c r="A459" s="2" t="s">
+      <c r="A459" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C459" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D459" s="3"/>
+      <c r="C459" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D459" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C460" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D460" s="3"/>
+      <c r="C460" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D460" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5">
-      <c r="A461" s="2" t="s">
+      <c r="A461" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C461" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D461" s="3"/>
+      <c r="C461" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D461" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5">
-      <c r="A462" s="2" t="s">
+      <c r="A462" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C462" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D462" s="3"/>
+      <c r="C462" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D462" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5">
-      <c r="A463" s="2" t="s">
+      <c r="A463" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C463" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D463" s="3"/>
+      <c r="C463" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D463" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="19.5">
-      <c r="A464" s="2" t="s">
+      <c r="A464" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C464" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D464" s="3"/>
+      <c r="C464" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D464" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="19.5">
-      <c r="A465" s="2" t="s">
+      <c r="A465" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C465" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D465" s="3"/>
+      <c r="C465" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D465" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="19.5">
-      <c r="A466" s="2" t="s">
+      <c r="A466" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C466" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D466" s="3"/>
+      <c r="C466" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D466" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="19.5">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D467" s="3"/>
+      <c r="C467" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D467" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="19.5">
-      <c r="A468" s="2" t="s">
+      <c r="A468" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B468" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C468" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D468" s="3"/>
+      <c r="C468" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D468" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="19.5">
-      <c r="A469" s="2" t="s">
+      <c r="A469" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B469" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C469" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D469" s="3"/>
+      <c r="C469" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D469" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="19.5">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
-      <c r="D470" s="3"/>
+      <c r="D470" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="19.5">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
-      <c r="D471" s="3"/>
+      <c r="D471" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="19.5">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C472" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D472" s="3"/>
+      <c r="C472" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D472" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="19.5">
-      <c r="A473" s="2" t="s">
+      <c r="A473" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B473" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C473" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D473" s="3"/>
+      <c r="C473" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D473" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="19.5">
-      <c r="A474" s="2" t="s">
+      <c r="A474" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B474" s="2" t="s">
+      <c r="B474" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C474" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D474" s="3"/>
+      <c r="C474" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D474" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="19.5">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B475" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D475" s="3"/>
+      <c r="C475" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D475" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="19.5">
-      <c r="A476" s="2" t="s">
+      <c r="A476" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B476" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C476" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D476" s="3"/>
+      <c r="C476" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D476" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="19.5">
-      <c r="A477" s="2" t="s">
+      <c r="A477" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B477" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C477" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D477" s="3"/>
+      <c r="C477" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D477" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="19.5">
-      <c r="A478" s="2" t="s">
+      <c r="A478" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B478" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C478" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D478" s="3"/>
+      <c r="C478" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D478" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="19.5">
-      <c r="A479" s="2" t="s">
+      <c r="A479" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C479" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D479" s="3"/>
+      <c r="C479" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D479" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="19.5">
-      <c r="A480" s="2" t="s">
+      <c r="A480" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B480" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C480" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D480" s="3"/>
+      <c r="C480" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D480" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="19.5">
-      <c r="A481" s="2" t="s">
+      <c r="A481" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B481" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C481" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D481" s="3"/>
+      <c r="C481" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D481" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Question.xlsx
+++ b/Question.xlsx
@@ -223,7 +223,7 @@
     <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
   </si>
   <si>
-    <t>Word Wrap Problem [VERY IMP].</t>
+    <t>Word break Problem [VERY IMP].</t>
   </si>
   <si>
     <t>EDIT Distance [Very Imp]</t>

--- a/Question.xlsx
+++ b/Question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2432,7 +2432,9 @@
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1" t="s">
@@ -2444,7 +2446,9 @@
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1" t="s">
@@ -2456,7 +2460,9 @@
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1" t="s">
@@ -2468,7 +2474,9 @@
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="1" t="s">
@@ -2480,7 +2488,9 @@
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="1" t="s">
@@ -2492,7 +2502,9 @@
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="1" t="s">
@@ -2504,7 +2516,9 @@
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="1" t="s">
@@ -2516,7 +2530,9 @@
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="1" t="s">
@@ -2528,7 +2544,9 @@
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="1" t="s">
@@ -2540,7 +2558,9 @@
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="1" t="s">
@@ -2552,7 +2572,9 @@
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="1" t="s">
@@ -2564,7 +2586,9 @@
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="1" t="s">
@@ -2576,7 +2600,9 @@
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="1" t="s">
@@ -2588,7 +2614,9 @@
       <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="1" t="s">
@@ -2600,7 +2628,9 @@
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="1" t="s">
@@ -2612,7 +2642,9 @@
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="1" t="s">
@@ -2624,7 +2656,9 @@
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="1" t="s">
@@ -2660,7 +2694,9 @@
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="1" t="s">
@@ -2672,7 +2708,9 @@
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="1" t="s">

--- a/Question.xlsx
+++ b/Question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2722,7 +2722,9 @@
       <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="1" t="s">

--- a/Question.xlsx
+++ b/Question.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
   <si>
     <t>Program to generate all possible valid IP addresses from given  string.</t>
@@ -2832,14 +2835,16 @@
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
       <c r="A87" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -2851,7 +2856,7 @@
         <v>56</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
@@ -2863,7 +2868,7 @@
         <v>56</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
@@ -2875,7 +2880,7 @@
         <v>56</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>8</v>
@@ -2887,7 +2892,7 @@
         <v>56</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
@@ -2899,7 +2904,7 @@
         <v>56</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>8</v>
@@ -2911,7 +2916,7 @@
         <v>56</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
@@ -2923,7 +2928,7 @@
         <v>56</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
@@ -2935,7 +2940,7 @@
         <v>56</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
@@ -2947,7 +2952,7 @@
         <v>56</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
@@ -2959,7 +2964,7 @@
         <v>56</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>8</v>
@@ -2971,7 +2976,7 @@
         <v>56</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>8</v>
@@ -2992,10 +2997,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>8</v>
@@ -3004,10 +3009,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
       <c r="A102" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
@@ -3016,10 +3021,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
       <c r="A103" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>8</v>
@@ -3028,10 +3033,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
       <c r="A104" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
@@ -3040,10 +3045,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
       <c r="A105" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>8</v>
@@ -3052,10 +3057,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
       <c r="A106" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>8</v>
@@ -3064,10 +3069,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
       <c r="A107" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
@@ -3076,10 +3081,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
       <c r="A108" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>8</v>
@@ -3088,10 +3093,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
       <c r="A109" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
@@ -3100,10 +3105,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
@@ -3112,10 +3117,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>8</v>
@@ -3124,10 +3129,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
       <c r="A112" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
@@ -3136,10 +3141,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>8</v>
@@ -3148,10 +3153,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>8</v>
@@ -3160,10 +3165,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
       <c r="A115" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>8</v>
@@ -3172,10 +3177,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
       <c r="A116" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>8</v>
@@ -3184,10 +3189,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
       <c r="A117" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>8</v>
@@ -3196,10 +3201,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
       <c r="A118" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>8</v>
@@ -3208,10 +3213,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
       <c r="A119" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
@@ -3220,10 +3225,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>8</v>
@@ -3232,10 +3237,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>8</v>
@@ -3244,10 +3249,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>8</v>
@@ -3256,10 +3261,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>8</v>
@@ -3268,10 +3273,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>8</v>
@@ -3280,10 +3285,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>8</v>
@@ -3292,10 +3297,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
       <c r="A126" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>8</v>
@@ -3304,10 +3309,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
@@ -3316,10 +3321,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>8</v>
@@ -3328,10 +3333,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
@@ -3340,10 +3345,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>8</v>
@@ -3352,10 +3357,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
@@ -3364,10 +3369,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
@@ -3376,10 +3381,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
@@ -3388,10 +3393,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>8</v>
@@ -3400,10 +3405,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>8</v>
@@ -3412,10 +3417,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>8</v>
@@ -3436,10 +3441,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>8</v>
@@ -3448,10 +3453,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>8</v>
@@ -3460,10 +3465,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
@@ -3472,10 +3477,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>8</v>
@@ -3484,10 +3489,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>8</v>
@@ -3496,10 +3501,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>8</v>
@@ -3508,10 +3513,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
@@ -3520,10 +3525,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>8</v>
@@ -3532,10 +3537,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
       <c r="A147" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>8</v>
@@ -3544,10 +3549,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
       <c r="A148" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>8</v>
@@ -3556,10 +3561,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
       <c r="A149" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>8</v>
@@ -3568,10 +3573,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
       <c r="A150" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
@@ -3580,10 +3585,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
       <c r="A151" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>8</v>
@@ -3592,10 +3597,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
       <c r="A152" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>8</v>
@@ -3604,10 +3609,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
       <c r="A153" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>8</v>
@@ -3616,10 +3621,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
       <c r="A154" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>8</v>
@@ -3628,10 +3633,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
       <c r="A155" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>8</v>
@@ -3640,10 +3645,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
       <c r="A156" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>8</v>
@@ -3652,10 +3657,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
       <c r="A157" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>8</v>
@@ -3664,10 +3669,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
       <c r="A158" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>8</v>
@@ -3676,10 +3681,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
       <c r="A159" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>8</v>
@@ -3688,10 +3693,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
       <c r="A160" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>8</v>
@@ -3700,10 +3705,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
       <c r="A161" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>8</v>
@@ -3712,10 +3717,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
       <c r="A162" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>8</v>
@@ -3724,10 +3729,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
       <c r="A163" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>8</v>
@@ -3736,10 +3741,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
       <c r="A164" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>8</v>
@@ -3748,10 +3753,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
       <c r="A165" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>8</v>
@@ -3760,10 +3765,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
       <c r="A166" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>8</v>
@@ -3772,10 +3777,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
       <c r="A167" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>8</v>
@@ -3784,10 +3789,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
       <c r="A168" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>8</v>
@@ -3796,10 +3801,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
       <c r="A169" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>8</v>
@@ -3808,10 +3813,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
       <c r="A170" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>8</v>
@@ -3820,10 +3825,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
       <c r="A171" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>8</v>
@@ -3832,10 +3837,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
       <c r="A172" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>8</v>
@@ -3844,10 +3849,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
       <c r="A173" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>8</v>
@@ -3856,10 +3861,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
       <c r="A174" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>8</v>
@@ -3880,10 +3885,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
       <c r="A177" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>8</v>
@@ -3892,10 +3897,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
       <c r="A178" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>8</v>
@@ -3904,10 +3909,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
       <c r="A179" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>8</v>
@@ -3916,10 +3921,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
       <c r="A180" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>8</v>
@@ -3928,10 +3933,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
       <c r="A181" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>8</v>
@@ -3940,10 +3945,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>8</v>
@@ -3952,10 +3957,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
       <c r="A183" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>8</v>
@@ -3964,10 +3969,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>8</v>
@@ -3976,10 +3981,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>8</v>
@@ -3988,10 +3993,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>8</v>
@@ -4000,10 +4005,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>8</v>
@@ -4012,10 +4017,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>8</v>
@@ -4024,10 +4029,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>8</v>
@@ -4036,10 +4041,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>8</v>
@@ -4048,10 +4053,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>8</v>
@@ -4060,10 +4065,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>8</v>
@@ -4072,10 +4077,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>8</v>
@@ -4084,10 +4089,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>8</v>
@@ -4096,10 +4101,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>8</v>
@@ -4108,10 +4113,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>8</v>
@@ -4120,10 +4125,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>8</v>
@@ -4132,10 +4137,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
       <c r="A198" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>8</v>
@@ -4144,10 +4149,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
       <c r="A199" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>8</v>
@@ -4156,10 +4161,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
       <c r="A200" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>8</v>
@@ -4168,10 +4173,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
       <c r="A201" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
@@ -4180,10 +4185,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
       <c r="A202" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>8</v>
@@ -4192,10 +4197,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
       <c r="A203" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>8</v>
@@ -4204,10 +4209,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
       <c r="A204" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>8</v>
@@ -4216,10 +4221,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
       <c r="A205" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>8</v>
@@ -4228,10 +4233,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
       <c r="A206" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>8</v>
@@ -4240,10 +4245,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
       <c r="A207" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>8</v>
@@ -4252,10 +4257,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
       <c r="A208" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>8</v>
@@ -4264,10 +4269,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
       <c r="A209" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>8</v>
@@ -4276,10 +4281,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
       <c r="A210" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>8</v>
@@ -4288,10 +4293,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
       <c r="A211" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>8</v>
@@ -4312,10 +4317,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
       <c r="A214" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>8</v>
@@ -4324,10 +4329,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
       <c r="A215" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>8</v>
@@ -4336,10 +4341,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
       <c r="A216" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>8</v>
@@ -4348,10 +4353,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
       <c r="A217" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>8</v>
@@ -4360,10 +4365,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
       <c r="A218" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>8</v>
@@ -4372,10 +4377,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
       <c r="A219" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>8</v>
@@ -4384,10 +4389,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
       <c r="A220" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>8</v>
@@ -4396,10 +4401,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
       <c r="A221" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>8</v>
@@ -4408,10 +4413,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
       <c r="A222" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>8</v>
@@ -4420,10 +4425,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
       <c r="A223" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>8</v>
@@ -4432,10 +4437,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
       <c r="A224" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>8</v>
@@ -4444,10 +4449,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
       <c r="A225" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>8</v>
@@ -4456,10 +4461,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
       <c r="A226" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>8</v>
@@ -4468,10 +4473,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
       <c r="A227" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>8</v>
@@ -4480,10 +4485,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
       <c r="A228" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>8</v>
@@ -4492,10 +4497,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
       <c r="A229" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>8</v>
@@ -4504,10 +4509,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
       <c r="A230" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>8</v>
@@ -4516,10 +4521,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="19.5">
       <c r="A231" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>8</v>
@@ -4528,10 +4533,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="19.5">
       <c r="A232" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>8</v>
@@ -4540,10 +4545,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="19.5">
       <c r="A233" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
@@ -4552,10 +4557,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="19.5">
       <c r="A234" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>8</v>
@@ -4564,10 +4569,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="19.5">
       <c r="A235" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>8</v>
@@ -4588,10 +4593,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="19.5">
       <c r="A238" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>8</v>
@@ -4600,10 +4605,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="19.5">
       <c r="A239" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>8</v>
@@ -4612,10 +4617,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="19.5">
       <c r="A240" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>8</v>
@@ -4624,10 +4629,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="19.5">
       <c r="A241" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>8</v>
@@ -4636,10 +4641,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="19.5">
       <c r="A242" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>8</v>
@@ -4648,10 +4653,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="19.5">
       <c r="A243" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>8</v>
@@ -4660,10 +4665,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="19.5">
       <c r="A244" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>8</v>
@@ -4672,10 +4677,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="19.5">
       <c r="A245" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>8</v>
@@ -4684,10 +4689,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="19.5">
       <c r="A246" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>8</v>
@@ -4696,10 +4701,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="19.5">
       <c r="A247" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>8</v>
@@ -4708,10 +4713,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="19.5">
       <c r="A248" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>8</v>
@@ -4720,10 +4725,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="19.5">
       <c r="A249" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>8</v>
@@ -4732,10 +4737,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="19.5">
       <c r="A250" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>8</v>
@@ -4744,10 +4749,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="19.5">
       <c r="A251" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>8</v>
@@ -4756,10 +4761,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="19.5">
       <c r="A252" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>8</v>
@@ -4768,10 +4773,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="19.5">
       <c r="A253" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>8</v>
@@ -4780,10 +4785,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="19.5">
       <c r="A254" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>8</v>
@@ -4792,10 +4797,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="19.5">
       <c r="A255" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>8</v>
@@ -4804,10 +4809,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="19.5">
       <c r="A256" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>8</v>
@@ -4816,10 +4821,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="19.5">
       <c r="A257" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>8</v>
@@ -4828,10 +4833,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="19.5">
       <c r="A258" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>8</v>
@@ -4840,10 +4845,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="19.5">
       <c r="A259" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>8</v>
@@ -4852,10 +4857,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="19.5">
       <c r="A260" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>8</v>
@@ -4864,10 +4869,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="19.5">
       <c r="A261" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>8</v>
@@ -4876,10 +4881,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="19.5">
       <c r="A262" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>8</v>
@@ -4888,10 +4893,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="19.5">
       <c r="A263" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>8</v>
@@ -4900,10 +4905,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="19.5">
       <c r="A264" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>8</v>
@@ -4912,10 +4917,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="19.5">
       <c r="A265" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>8</v>
@@ -4924,10 +4929,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="19.5">
       <c r="A266" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>8</v>
@@ -4936,10 +4941,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="19.5">
       <c r="A267" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>8</v>
@@ -4948,10 +4953,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="19.5">
       <c r="A268" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>8</v>
@@ -4960,10 +4965,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="19.5">
       <c r="A269" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>8</v>
@@ -4972,10 +4977,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="19.5">
       <c r="A270" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>8</v>
@@ -4984,10 +4989,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="19.5">
       <c r="A271" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>8</v>
@@ -4996,10 +5001,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="19.5">
       <c r="A272" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>8</v>
@@ -5020,10 +5025,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="19.5">
       <c r="A275" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>8</v>
@@ -5032,10 +5037,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="19.5">
       <c r="A276" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>8</v>
@@ -5044,10 +5049,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="19.5">
       <c r="A277" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>8</v>
@@ -5056,10 +5061,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="19.5">
       <c r="A278" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>8</v>
@@ -5068,10 +5073,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="19.5">
       <c r="A279" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>8</v>
@@ -5080,10 +5085,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="19.5">
       <c r="A280" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>8</v>
@@ -5092,10 +5097,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="19.5">
       <c r="A281" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>8</v>
@@ -5104,10 +5109,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="19.5">
       <c r="A282" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>8</v>
@@ -5116,10 +5121,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="19.5">
       <c r="A283" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>8</v>
@@ -5128,10 +5133,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="19.5">
       <c r="A284" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>8</v>
@@ -5140,10 +5145,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="19.5">
       <c r="A285" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>8</v>
@@ -5152,10 +5157,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="19.5">
       <c r="A286" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>8</v>
@@ -5164,10 +5169,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="19.5">
       <c r="A287" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>8</v>
@@ -5176,10 +5181,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="19.5">
       <c r="A288" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>8</v>
@@ -5188,10 +5193,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="19.5">
       <c r="A289" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>8</v>
@@ -5200,10 +5205,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="19.5">
       <c r="A290" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>8</v>
@@ -5212,10 +5217,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="19.5">
       <c r="A291" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>8</v>
@@ -5224,10 +5229,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="19.5">
       <c r="A292" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>8</v>
@@ -5236,10 +5241,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="19.5">
       <c r="A293" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>8</v>
@@ -5260,10 +5265,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="19.5">
       <c r="A296" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>8</v>
@@ -5272,10 +5277,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="19.5">
       <c r="A297" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>8</v>
@@ -5284,10 +5289,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="19.5">
       <c r="A298" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>8</v>
@@ -5296,10 +5301,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="19.5">
       <c r="A299" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>8</v>
@@ -5308,10 +5313,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="19.5">
       <c r="A300" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>8</v>
@@ -5320,10 +5325,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="19.5">
       <c r="A301" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>8</v>
@@ -5332,10 +5337,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="19.5">
       <c r="A302" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>8</v>
@@ -5344,10 +5349,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="19.5">
       <c r="A303" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>8</v>
@@ -5356,10 +5361,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="19.5">
       <c r="A304" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>8</v>
@@ -5368,10 +5373,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="19.5">
       <c r="A305" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>8</v>
@@ -5380,10 +5385,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="19.5">
       <c r="A306" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>8</v>
@@ -5392,10 +5397,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="19.5">
       <c r="A307" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>8</v>
@@ -5404,10 +5409,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="19.5">
       <c r="A308" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>8</v>
@@ -5416,10 +5421,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="19.5">
       <c r="A309" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>8</v>
@@ -5428,10 +5433,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="19.5">
       <c r="A310" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>8</v>
@@ -5440,10 +5445,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="19.5">
       <c r="A311" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>8</v>
@@ -5452,10 +5457,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="19.5">
       <c r="A312" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>8</v>
@@ -5464,10 +5469,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="19.5">
       <c r="A313" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>8</v>
@@ -5476,10 +5481,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="19.5">
       <c r="A314" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>8</v>
@@ -5488,10 +5493,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="19.5">
       <c r="A315" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>8</v>
@@ -5500,10 +5505,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="19.5">
       <c r="A316" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>8</v>
@@ -5512,10 +5517,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="19.5">
       <c r="A317" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>8</v>
@@ -5524,10 +5529,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="19.5">
       <c r="A318" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>8</v>
@@ -5536,10 +5541,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="19.5">
       <c r="A319" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>8</v>
@@ -5548,10 +5553,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="19.5">
       <c r="A320" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>8</v>
@@ -5560,10 +5565,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="19.5">
       <c r="A321" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>8</v>
@@ -5572,10 +5577,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="19.5">
       <c r="A322" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>8</v>
@@ -5584,10 +5589,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="19.5">
       <c r="A323" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>8</v>
@@ -5596,10 +5601,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="19.5">
       <c r="A324" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>8</v>
@@ -5608,10 +5613,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="19.5">
       <c r="A325" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>8</v>
@@ -5620,10 +5625,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="19.5">
       <c r="A326" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>8</v>
@@ -5632,10 +5637,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="19.5">
       <c r="A327" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>8</v>
@@ -5644,10 +5649,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="19.5">
       <c r="A328" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>8</v>
@@ -5656,10 +5661,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="19.5">
       <c r="A329" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>8</v>
@@ -5668,10 +5673,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="19.5">
       <c r="A330" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>8</v>
@@ -5680,10 +5685,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="19.5">
       <c r="A331" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>8</v>
@@ -5692,10 +5697,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="19.5">
       <c r="A332" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>8</v>
@@ -5704,10 +5709,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="19.5">
       <c r="A333" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>8</v>
@@ -5728,10 +5733,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="19.5">
       <c r="A336" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>8</v>
@@ -5740,10 +5745,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="19.5">
       <c r="A337" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>8</v>
@@ -5752,10 +5757,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="19.5">
       <c r="A338" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>8</v>
@@ -5764,10 +5769,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="19.5">
       <c r="A339" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>8</v>
@@ -5776,10 +5781,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="19.5">
       <c r="A340" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>8</v>
@@ -5788,10 +5793,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="19.5">
       <c r="A341" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>8</v>
@@ -5800,10 +5805,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="19.5">
       <c r="A342" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>8</v>
@@ -5812,10 +5817,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="19.5">
       <c r="A343" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>8</v>
@@ -5824,10 +5829,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="19.5">
       <c r="A344" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>8</v>
@@ -5836,10 +5841,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="19.5">
       <c r="A345" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>8</v>
@@ -5848,10 +5853,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="19.5">
       <c r="A346" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>8</v>
@@ -5860,10 +5865,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="19.5">
       <c r="A347" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>8</v>
@@ -5872,10 +5877,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="19.5">
       <c r="A348" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>8</v>
@@ -5884,10 +5889,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="19.5">
       <c r="A349" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>8</v>
@@ -5896,10 +5901,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="19.5">
       <c r="A350" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>8</v>
@@ -5908,10 +5913,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="19.5">
       <c r="A351" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>8</v>
@@ -5920,10 +5925,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="19.5">
       <c r="A352" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>8</v>
@@ -5932,10 +5937,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="19.5">
       <c r="A353" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>8</v>
@@ -5956,10 +5961,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="19.5">
       <c r="A356" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>8</v>
@@ -5968,10 +5973,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="19.5">
       <c r="A357" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>8</v>
@@ -5980,10 +5985,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="19.5">
       <c r="A358" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>8</v>
@@ -5992,10 +5997,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="19.5">
       <c r="A359" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>8</v>
@@ -6004,10 +6009,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="19.5">
       <c r="A360" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>8</v>
@@ -6016,10 +6021,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="19.5">
       <c r="A361" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>8</v>
@@ -6028,10 +6033,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="19.5">
       <c r="A362" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>8</v>
@@ -6040,10 +6045,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="19.5">
       <c r="A363" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>8</v>
@@ -6052,10 +6057,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="19.5">
       <c r="A364" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>8</v>
@@ -6064,10 +6069,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="19.5">
       <c r="A365" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>8</v>
@@ -6076,10 +6081,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="19.5">
       <c r="A366" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>8</v>
@@ -6088,10 +6093,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="19.5">
       <c r="A367" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>8</v>
@@ -6100,10 +6105,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="19.5">
       <c r="A368" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>8</v>
@@ -6112,10 +6117,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="19.5">
       <c r="A369" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>8</v>
@@ -6124,10 +6129,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="19.5">
       <c r="A370" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>8</v>
@@ -6136,10 +6141,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="19.5">
       <c r="A371" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>8</v>
@@ -6148,10 +6153,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="19.5">
       <c r="A372" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>8</v>
@@ -6160,10 +6165,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="19.5">
       <c r="A373" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>8</v>
@@ -6172,10 +6177,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="19.5">
       <c r="A374" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>8</v>
@@ -6184,10 +6189,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="19.5">
       <c r="A375" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>8</v>
@@ -6196,10 +6201,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="19.5">
       <c r="A376" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>8</v>
@@ -6208,10 +6213,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="19.5">
       <c r="A377" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>8</v>
@@ -6220,10 +6225,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="19.5">
       <c r="A378" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>8</v>
@@ -6232,10 +6237,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="19.5">
       <c r="A379" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>8</v>
@@ -6244,10 +6249,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="19.5">
       <c r="A380" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>8</v>
@@ -6256,10 +6261,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="19.5">
       <c r="A381" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>8</v>
@@ -6268,10 +6273,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="19.5">
       <c r="A382" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>8</v>
@@ -6280,10 +6285,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="19.5">
       <c r="A383" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>8</v>
@@ -6292,10 +6297,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="19.5">
       <c r="A384" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>8</v>
@@ -6304,10 +6309,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="19.5">
       <c r="A385" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>8</v>
@@ -6316,10 +6321,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="19.5">
       <c r="A386" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>8</v>
@@ -6328,10 +6333,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="19.5">
       <c r="A387" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>8</v>
@@ -6340,10 +6345,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="19.5">
       <c r="A388" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>8</v>
@@ -6352,10 +6357,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="19.5">
       <c r="A389" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>8</v>
@@ -6364,10 +6369,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="19.5">
       <c r="A390" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>8</v>
@@ -6376,10 +6381,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="19.5">
       <c r="A391" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>8</v>
@@ -6388,10 +6393,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="19.5">
       <c r="A392" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>8</v>
@@ -6400,10 +6405,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="19.5">
       <c r="A393" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>8</v>
@@ -6412,10 +6417,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="19.5">
       <c r="A394" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>8</v>
@@ -6424,10 +6429,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="19.5">
       <c r="A395" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>8</v>
@@ -6436,10 +6441,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="19.5">
       <c r="A396" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>8</v>
@@ -6448,10 +6453,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="19.5">
       <c r="A397" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>8</v>
@@ -6460,10 +6465,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="19.5">
       <c r="A398" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>8</v>
@@ -6472,10 +6477,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="19.5">
       <c r="A399" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>8</v>
@@ -6496,10 +6501,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="19.5">
       <c r="A402" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>8</v>
@@ -6508,10 +6513,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="19.5">
       <c r="A403" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>8</v>
@@ -6520,10 +6525,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="19.5">
       <c r="A404" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>8</v>
@@ -6532,10 +6537,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="19.5">
       <c r="A405" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>8</v>
@@ -6544,10 +6549,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="19.5">
       <c r="A406" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>8</v>
@@ -6556,10 +6561,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="19.5">
       <c r="A407" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>8</v>
@@ -6580,10 +6585,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="19.5">
       <c r="A410" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>8</v>
@@ -6592,10 +6597,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="19.5">
       <c r="A411" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>8</v>
@@ -6604,10 +6609,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="19.5">
       <c r="A412" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>8</v>
@@ -6616,10 +6621,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="19.5">
       <c r="A413" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>8</v>
@@ -6628,10 +6633,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="19.5">
       <c r="A414" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>8</v>
@@ -6640,10 +6645,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="19.5">
       <c r="A415" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>8</v>
@@ -6652,10 +6657,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="19.5">
       <c r="A416" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>8</v>
@@ -6664,10 +6669,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="19.5">
       <c r="A417" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>8</v>
@@ -6676,10 +6681,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="19.5">
       <c r="A418" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>8</v>
@@ -6688,10 +6693,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="19.5">
       <c r="A419" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>8</v>
@@ -6700,10 +6705,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="19.5">
       <c r="A420" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>8</v>
@@ -6712,10 +6717,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="19.5">
       <c r="A421" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>8</v>
@@ -6724,10 +6729,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="19.5">
       <c r="A422" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>8</v>
@@ -6736,10 +6741,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="19.5">
       <c r="A423" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>8</v>
@@ -6748,10 +6753,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="19.5">
       <c r="A424" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>8</v>
@@ -6760,10 +6765,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="19.5">
       <c r="A425" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>8</v>
@@ -6772,10 +6777,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="19.5">
       <c r="A426" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>8</v>
@@ -6784,10 +6789,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="19.5">
       <c r="A427" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>8</v>
@@ -6796,10 +6801,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="19.5">
       <c r="A428" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>8</v>
@@ -6808,10 +6813,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="19.5">
       <c r="A429" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>8</v>
@@ -6820,10 +6825,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="19.5">
       <c r="A430" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>8</v>
@@ -6832,10 +6837,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="19.5">
       <c r="A431" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>8</v>
@@ -6844,10 +6849,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="19.5">
       <c r="A432" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>8</v>
@@ -6856,10 +6861,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="19.5">
       <c r="A433" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>8</v>
@@ -6868,10 +6873,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="19.5">
       <c r="A434" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>8</v>
@@ -6880,10 +6885,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="19.5">
       <c r="A435" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>8</v>
@@ -6892,10 +6897,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="19.5">
       <c r="A436" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>8</v>
@@ -6904,10 +6909,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="19.5">
       <c r="A437" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>8</v>
@@ -6916,10 +6921,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="19.5">
       <c r="A438" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>8</v>
@@ -6928,10 +6933,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="19.5">
       <c r="A439" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>8</v>
@@ -6940,10 +6945,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="19.5">
       <c r="A440" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>8</v>
@@ -6952,10 +6957,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="19.5">
       <c r="A441" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>8</v>
@@ -6964,10 +6969,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="19.5">
       <c r="A442" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>8</v>
@@ -6976,10 +6981,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="19.5">
       <c r="A443" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>8</v>
@@ -6988,10 +6993,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="19.5">
       <c r="A444" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>8</v>
@@ -7000,10 +7005,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="19.5">
       <c r="A445" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>8</v>
@@ -7012,10 +7017,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="19.5">
       <c r="A446" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>8</v>
@@ -7024,10 +7029,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="19.5">
       <c r="A447" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>8</v>
@@ -7036,10 +7041,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="19.5">
       <c r="A448" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>8</v>
@@ -7048,10 +7053,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="19.5">
       <c r="A449" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>8</v>
@@ -7060,10 +7065,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="19.5">
       <c r="A450" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>8</v>
@@ -7072,10 +7077,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="19.5">
       <c r="A451" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>8</v>
@@ -7084,10 +7089,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="19.5">
       <c r="A452" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>8</v>
@@ -7096,10 +7101,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="19.5">
       <c r="A453" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>8</v>
@@ -7108,10 +7113,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="19.5">
       <c r="A454" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>8</v>
@@ -7120,10 +7125,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="19.5">
       <c r="A455" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>8</v>
@@ -7132,10 +7137,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="19.5">
       <c r="A456" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>8</v>
@@ -7144,10 +7149,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="19.5">
       <c r="A457" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>8</v>
@@ -7156,10 +7161,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="19.5">
       <c r="A458" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>8</v>
@@ -7168,10 +7173,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="19.5">
       <c r="A459" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>8</v>
@@ -7180,10 +7185,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="19.5">
       <c r="A460" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>8</v>
@@ -7192,10 +7197,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="19.5">
       <c r="A461" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>8</v>
@@ -7204,10 +7209,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="19.5">
       <c r="A462" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>8</v>
@@ -7216,10 +7221,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="19.5">
       <c r="A463" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>8</v>
@@ -7228,10 +7233,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="19.5">
       <c r="A464" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>8</v>
@@ -7240,10 +7245,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="19.5">
       <c r="A465" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>8</v>
@@ -7252,10 +7257,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="19.5">
       <c r="A466" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>8</v>
@@ -7264,10 +7269,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="19.5">
       <c r="A467" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>8</v>
@@ -7276,10 +7281,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="19.5">
       <c r="A468" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>8</v>
@@ -7288,10 +7293,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="19.5">
       <c r="A469" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>8</v>
@@ -7312,10 +7317,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="19.5">
       <c r="A472" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>8</v>
@@ -7324,10 +7329,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="19.5">
       <c r="A473" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>8</v>
@@ -7336,10 +7341,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="19.5">
       <c r="A474" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>8</v>
@@ -7348,10 +7353,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="19.5">
       <c r="A475" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>8</v>
@@ -7360,10 +7365,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="19.5">
       <c r="A476" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>8</v>
@@ -7372,10 +7377,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="19.5">
       <c r="A477" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>8</v>
@@ -7384,10 +7389,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="19.5">
       <c r="A478" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>8</v>
@@ -7396,10 +7401,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="19.5">
       <c r="A479" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>8</v>
@@ -7408,10 +7413,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="19.5">
       <c r="A480" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>8</v>
@@ -7420,10 +7425,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="19.5">
       <c r="A481" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>8</v>
